--- a/NameListSample.xlsx
+++ b/NameListSample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="11895"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="11895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="671">
   <si>
     <t>王眾慧</t>
   </si>
@@ -2042,10 +2042,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iphone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PS4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2059,6 +2055,25 @@
   </si>
   <si>
     <t>5000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600元</t>
+  </si>
+  <si>
+    <t>600元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone Xs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -17120,8 +17135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B330"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19783,10 +19798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19804,7 +19819,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -19828,7 +19843,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -19836,7 +19851,87 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>668</v>
       </c>
     </row>
   </sheetData>

--- a/NameListSample.xlsx
+++ b/NameListSample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="11895" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="11895"/>
   </bookViews>
   <sheets>
     <sheet name="工作表" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="874">
   <si>
     <t>王眾慧</t>
   </si>
@@ -44,9 +44,6 @@
     <t>鄭暐潔</t>
   </si>
   <si>
-    <t>馮國峰</t>
-  </si>
-  <si>
     <t>傅玉華</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>李依蓉</t>
   </si>
   <si>
-    <t>林志翰</t>
-  </si>
-  <si>
     <t>蔡鎬宇</t>
   </si>
   <si>
@@ -158,12 +152,6 @@
     <t>林銘隆</t>
   </si>
   <si>
-    <t>017154</t>
-  </si>
-  <si>
-    <t>許庭綱</t>
-  </si>
-  <si>
     <t>021435</t>
   </si>
   <si>
@@ -287,10 +275,6 @@
     <t>000251</t>
   </si>
   <si>
-    <t>陳永平</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>000684</t>
   </si>
   <si>
@@ -318,10 +302,6 @@
     <t>006509</t>
   </si>
   <si>
-    <t>林汝璇</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>007651</t>
   </si>
   <si>
@@ -445,10 +425,6 @@
     <t>002673</t>
   </si>
   <si>
-    <t>林軒立</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>003544</t>
   </si>
   <si>
@@ -578,10 +554,6 @@
     <t>002469</t>
   </si>
   <si>
-    <t>楊木蓮</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>006725</t>
   </si>
   <si>
@@ -621,10 +593,6 @@
     <t>000276</t>
   </si>
   <si>
-    <t>林秋月</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>002686</t>
   </si>
   <si>
@@ -637,12 +605,6 @@
     <t>江芷萱</t>
   </si>
   <si>
-    <t>018327</t>
-  </si>
-  <si>
-    <t>許貴堯</t>
-  </si>
-  <si>
     <t>020505</t>
   </si>
   <si>
@@ -715,12 +677,6 @@
     <t>陳郁文</t>
   </si>
   <si>
-    <t>021413</t>
-  </si>
-  <si>
-    <t>彭崇雅</t>
-  </si>
-  <si>
     <t>004217</t>
   </si>
   <si>
@@ -772,10 +728,6 @@
     <t>021277</t>
   </si>
   <si>
-    <t>李浚源</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>022140</t>
   </si>
   <si>
@@ -791,30 +743,12 @@
     <t>004215</t>
   </si>
   <si>
-    <t>林文安</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>007571</t>
   </si>
   <si>
-    <t>張哲鈴</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>017651</t>
   </si>
   <si>
-    <t>黃恩惠</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
-    <t>022002</t>
-  </si>
-  <si>
-    <t>李明駿</t>
-  </si>
-  <si>
     <t>001252</t>
   </si>
   <si>
@@ -854,35 +788,15 @@
     <t>007371</t>
   </si>
   <si>
-    <t>柯懿淳</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>015318</t>
   </si>
   <si>
     <t>李建洲</t>
   </si>
   <si>
-    <t>011294</t>
-  </si>
-  <si>
-    <t>林凱尉</t>
-  </si>
-  <si>
-    <t>013374</t>
-  </si>
-  <si>
-    <t>林景宏</t>
-  </si>
-  <si>
     <t>016672</t>
   </si>
   <si>
-    <t>林怡妏</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>000328</t>
   </si>
   <si>
@@ -904,10 +818,6 @@
     <t>000443</t>
   </si>
   <si>
-    <t>廖祈睿</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>002179</t>
   </si>
   <si>
@@ -926,12 +836,6 @@
     <t>姜利龍</t>
   </si>
   <si>
-    <t>020237</t>
-  </si>
-  <si>
-    <t>李俊宏</t>
-  </si>
-  <si>
     <t>021274</t>
   </si>
   <si>
@@ -1019,10 +923,6 @@
     <t>001038</t>
   </si>
   <si>
-    <t>陳珮芬</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>001243</t>
   </si>
   <si>
@@ -1059,12 +959,6 @@
     <t>王蘭芬</t>
   </si>
   <si>
-    <t>021849</t>
-  </si>
-  <si>
-    <t>王惠暄</t>
-  </si>
-  <si>
     <t>014626</t>
   </si>
   <si>
@@ -1104,10 +998,6 @@
     <t>000046</t>
   </si>
   <si>
-    <t>王金盆</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>000216</t>
   </si>
   <si>
@@ -1180,12 +1070,6 @@
     <t>陳美珠</t>
   </si>
   <si>
-    <t>018872</t>
-  </si>
-  <si>
-    <t>廖淑娜</t>
-  </si>
-  <si>
     <t>019649</t>
   </si>
   <si>
@@ -1219,10 +1103,6 @@
     <t>023395</t>
   </si>
   <si>
-    <t>陳樺褘</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>001310</t>
   </si>
   <si>
@@ -1241,18 +1121,6 @@
     <t>周宜慧</t>
   </si>
   <si>
-    <t>002696</t>
-  </si>
-  <si>
-    <t>江佩珊</t>
-  </si>
-  <si>
-    <t>010236</t>
-  </si>
-  <si>
-    <t>許嘉哲</t>
-  </si>
-  <si>
     <t>018676</t>
   </si>
   <si>
@@ -1262,23 +1130,9 @@
     <t>020582</t>
   </si>
   <si>
-    <t>丁晨騰</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
-    <t>020765</t>
-  </si>
-  <si>
-    <t>陳依依</t>
-  </si>
-  <si>
     <t>021071</t>
   </si>
   <si>
-    <t>張亞涵</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>022822</t>
   </si>
   <si>
@@ -1297,24 +1151,12 @@
     <t>盧億慈</t>
   </si>
   <si>
-    <t>021580</t>
-  </si>
-  <si>
-    <t>朱宸鋒</t>
-  </si>
-  <si>
     <t>022183</t>
   </si>
   <si>
     <t>胡巧琳</t>
   </si>
   <si>
-    <t>012373</t>
-  </si>
-  <si>
-    <t>周家杰</t>
-  </si>
-  <si>
     <t>020140</t>
   </si>
   <si>
@@ -1357,12 +1199,6 @@
     <t>鍾鎔潞</t>
   </si>
   <si>
-    <t>023031</t>
-  </si>
-  <si>
-    <t>黃曼禎</t>
-  </si>
-  <si>
     <t>004920</t>
   </si>
   <si>
@@ -1381,12 +1217,6 @@
     <t>林妙鈴</t>
   </si>
   <si>
-    <t>020721</t>
-  </si>
-  <si>
-    <t>邱詩珈</t>
-  </si>
-  <si>
     <t>001100</t>
   </si>
   <si>
@@ -1465,18 +1295,6 @@
     <t>蔡國輝</t>
   </si>
   <si>
-    <t>000002</t>
-  </si>
-  <si>
-    <t>蔡李玉霞</t>
-  </si>
-  <si>
-    <t>000003</t>
-  </si>
-  <si>
-    <t>李春明</t>
-  </si>
-  <si>
     <t>000055</t>
   </si>
   <si>
@@ -1492,10 +1310,6 @@
     <t>001916</t>
   </si>
   <si>
-    <t>高紹銘</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>004262</t>
   </si>
   <si>
@@ -1535,10 +1349,6 @@
     <t>000007</t>
   </si>
   <si>
-    <t>林文洲</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>000059</t>
   </si>
   <si>
@@ -1560,24 +1370,12 @@
     <t>000011</t>
   </si>
   <si>
-    <t>周宗正</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>000026</t>
   </si>
   <si>
-    <t>陳駿鵬</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>000072</t>
   </si>
   <si>
-    <t>李基地</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>000279</t>
   </si>
   <si>
@@ -1629,17 +1427,9 @@
     <t>004874</t>
   </si>
   <si>
-    <t>羅立文</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>016580</t>
   </si>
   <si>
-    <t>林晉丞</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>018965</t>
   </si>
   <si>
@@ -1667,10 +1457,6 @@
     <t>014628</t>
   </si>
   <si>
-    <t>林正智</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>002288</t>
   </si>
   <si>
@@ -1716,10 +1502,6 @@
     <t>014518</t>
   </si>
   <si>
-    <t>王長文</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>018553</t>
   </si>
   <si>
@@ -1735,10 +1517,6 @@
     <t>007089</t>
   </si>
   <si>
-    <t>賴俊誌</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>016670</t>
   </si>
   <si>
@@ -1754,17 +1532,9 @@
     <t>006387</t>
   </si>
   <si>
-    <t>沈育宏</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>021583</t>
   </si>
   <si>
-    <t>簡郁文</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>000945</t>
   </si>
   <si>
@@ -1879,16 +1649,9 @@
     <t>沈紓珣</t>
   </si>
   <si>
-    <t>015219</t>
-  </si>
-  <si>
     <t>016103</t>
   </si>
   <si>
-    <t>林光興</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>017040</t>
   </si>
   <si>
@@ -1898,12 +1661,6 @@
     <t>林士彰</t>
   </si>
   <si>
-    <t>021573</t>
-  </si>
-  <si>
-    <t>邱靖唐</t>
-  </si>
-  <si>
     <t>021848</t>
   </si>
   <si>
@@ -1934,19 +1691,9 @@
     <t>劉韋億</t>
   </si>
   <si>
-    <t>024530</t>
-  </si>
-  <si>
-    <t>胡瀚元</t>
-  </si>
-  <si>
     <t>000254</t>
   </si>
   <si>
-    <t>林麗雯</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>001260</t>
   </si>
   <si>
@@ -1968,16 +1715,9 @@
     <t>010572</t>
   </si>
   <si>
-    <t>016249</t>
-  </si>
-  <si>
     <t>016839</t>
   </si>
   <si>
-    <t>吳俊怡</t>
-    <phoneticPr fontId="69" type="noConversion"/>
-  </si>
-  <si>
     <t>018435</t>
   </si>
   <si>
@@ -2014,16 +1754,98 @@
     <t>李家瑋</t>
   </si>
   <si>
-    <t>014325</t>
-  </si>
-  <si>
-    <t>王宣方</t>
-  </si>
-  <si>
     <t>022306</t>
   </si>
   <si>
     <t>陳奕嘉</t>
+  </si>
+  <si>
+    <t>獎項</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gogoro 二代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MacBook Pro 13吋 256G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I Phone XS 金色 256G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple iPad Wi-Fi 金色 128GB </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米家掃地機器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任天堂 Nintendo Switch 藍紅手把組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GoPro HERO7 White 全方位攝影機 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bose® SoundLink® Revolve+ 藍牙喇叭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPLE AirPods無線耳機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHARP夏普 蚊取空氣清淨機 黑色 FU-GM50T-B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美國Honeywell-抗敏系列空氣清淨機HPA-300APTW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HITACHI 日立10公升除濕機RD-200HS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panasonic國際牌11公升ECONAVI除濕機 F-Y22EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英國 Gtech 小綠 Multi Plus 無線除蟎吸塵器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panasonic國際牌奈米水離子吹風機 EH-NA9A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CENTURION美國百夫長CRUISE克魯斯系列29吋行李箱-拉瓜地亞黑(胖胖箱)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Garmin vivoactive 3 行動支付心率智慧手錶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Garmin vivomove HR 指針智慧腕錶 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛利浦 PHILIPS 渦輪氣旋健康氣炸鍋(HD9642)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dyson V6 mattress Motorhead無線除塵螨機升級組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>員工編號</t>
@@ -2034,47 +1856,825 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>獎項</t>
+    <t>部門</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>編號</t>
+    <t>isSpecial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PS4</t>
+    <t>集團董事長</t>
+  </si>
+  <si>
+    <t>021546</t>
+  </si>
+  <si>
+    <t>張承裕</t>
+  </si>
+  <si>
+    <t>董事長室-新事業組</t>
+  </si>
+  <si>
+    <t>000925</t>
+  </si>
+  <si>
+    <t>黃黛鈴</t>
+  </si>
+  <si>
+    <t>稽核室</t>
+  </si>
+  <si>
+    <t>集團執行長</t>
+  </si>
+  <si>
+    <t>執行長室</t>
+  </si>
+  <si>
+    <t>023796</t>
+  </si>
+  <si>
+    <t>陳弘斌</t>
+  </si>
+  <si>
+    <t>執行長室-專案一組</t>
+  </si>
+  <si>
+    <t>025539</t>
+  </si>
+  <si>
+    <t>吳承書</t>
+  </si>
+  <si>
+    <t>執行長室-企業流程管理組</t>
+  </si>
+  <si>
+    <t>004037</t>
+  </si>
+  <si>
+    <t>陳靜怡</t>
+  </si>
+  <si>
+    <t>執行長室-改善活動推進小組</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>余建華</t>
+  </si>
+  <si>
+    <t>黃恩惠</t>
+  </si>
+  <si>
+    <t>執行長室-專案四組</t>
+  </si>
+  <si>
+    <t>024594</t>
+  </si>
+  <si>
+    <t>劉家昌</t>
+  </si>
+  <si>
+    <t>025452</t>
+  </si>
+  <si>
+    <t>郭善仁</t>
+  </si>
+  <si>
+    <t>數碼印刷應用組</t>
+  </si>
+  <si>
+    <t>023802</t>
+  </si>
+  <si>
+    <t>鄒宗黔</t>
+  </si>
+  <si>
+    <t>營繕組</t>
+  </si>
+  <si>
+    <t>生產運籌組</t>
+  </si>
+  <si>
+    <t>羅立文</t>
+  </si>
+  <si>
+    <t>013993</t>
+  </si>
+  <si>
+    <t>劉郁茹</t>
+  </si>
+  <si>
+    <t>研發中心</t>
+  </si>
+  <si>
+    <t>025357</t>
+  </si>
+  <si>
+    <t>符祥龍</t>
+  </si>
+  <si>
+    <t>研發中心-台北實驗室</t>
+  </si>
+  <si>
+    <t>023882</t>
+  </si>
+  <si>
+    <t>鄭郁璇</t>
+  </si>
+  <si>
+    <t>林文安</t>
+  </si>
+  <si>
+    <t>研發中心-研發組</t>
+  </si>
+  <si>
+    <t>張哲鈴</t>
+  </si>
+  <si>
+    <t>林怡妏</t>
+  </si>
+  <si>
+    <t>025359</t>
+  </si>
+  <si>
+    <t>劉田生</t>
+  </si>
+  <si>
+    <t>研發中心-專案產品開發組</t>
+  </si>
+  <si>
+    <t>李基地</t>
+  </si>
+  <si>
+    <t>工程中心</t>
+  </si>
+  <si>
+    <t>工程中心-設備組</t>
+  </si>
+  <si>
+    <t>024369</t>
+  </si>
+  <si>
+    <t>周格仲</t>
+  </si>
+  <si>
+    <t>工程中心-技術發展組</t>
+  </si>
+  <si>
+    <t>工程中心-光學產品開發應用組</t>
+  </si>
+  <si>
+    <t>023313</t>
+  </si>
+  <si>
+    <t>黃恩亭</t>
+  </si>
+  <si>
+    <t>024796</t>
+  </si>
+  <si>
+    <t>陳維淵</t>
+  </si>
+  <si>
+    <t>工程中心-CMF產品開發應用組</t>
+  </si>
+  <si>
+    <t>柯懿淳</t>
+  </si>
+  <si>
+    <t>管理中心</t>
+  </si>
+  <si>
+    <t>管理中心-人資組</t>
+  </si>
+  <si>
+    <t>009087</t>
+  </si>
+  <si>
+    <t>何岱芸</t>
+  </si>
+  <si>
+    <t>023112</t>
+  </si>
+  <si>
+    <t>陳詳衡</t>
+  </si>
+  <si>
+    <t>023393</t>
+  </si>
+  <si>
+    <t>陳宜貞</t>
+  </si>
+  <si>
+    <t>財會中心</t>
+  </si>
+  <si>
+    <t>財會中心-會計組</t>
+  </si>
+  <si>
+    <t>陳珮芬</t>
+  </si>
+  <si>
+    <t>008552</t>
+  </si>
+  <si>
+    <t>李俊邑</t>
+  </si>
+  <si>
+    <t>025451</t>
+  </si>
+  <si>
+    <t>張維珊</t>
+  </si>
+  <si>
+    <t>財會中心-財務組</t>
+  </si>
+  <si>
+    <t>資訊技術及應用中心</t>
+  </si>
+  <si>
+    <t>025288</t>
+  </si>
+  <si>
+    <t>戴靖宇</t>
+  </si>
+  <si>
+    <t>資訊技術及應用中心-集團印前組</t>
+  </si>
+  <si>
+    <t>023799</t>
+  </si>
+  <si>
+    <t>程靜宜</t>
+  </si>
+  <si>
+    <t>資訊服務本部</t>
+  </si>
+  <si>
+    <t>資訊服務本部-維運作業組</t>
+  </si>
+  <si>
+    <t>025538</t>
+  </si>
+  <si>
+    <t>林松南</t>
+  </si>
+  <si>
+    <t>資訊服務本部-客戶服務組</t>
+  </si>
+  <si>
+    <t>023800</t>
+  </si>
+  <si>
+    <t>陳彥寧</t>
+  </si>
+  <si>
+    <t>資訊系統本部</t>
+  </si>
+  <si>
+    <t>資訊系統本部-系統整合組</t>
+  </si>
+  <si>
+    <t>資訊系統本部-程式開發組</t>
+  </si>
+  <si>
+    <t>024228</t>
+  </si>
+  <si>
+    <t>楊淵智</t>
+  </si>
+  <si>
+    <t>電子事業部-策略管理組</t>
+  </si>
+  <si>
+    <t>023537</t>
+  </si>
+  <si>
+    <t>黃哲毅</t>
+  </si>
+  <si>
+    <t>025034</t>
+  </si>
+  <si>
+    <t>張欣愉</t>
+  </si>
+  <si>
+    <t>電子事業部-市場營銷組</t>
+  </si>
+  <si>
+    <t>019145</t>
+  </si>
+  <si>
+    <t>連濡淵</t>
+  </si>
+  <si>
+    <t>丁晨騰</t>
+  </si>
+  <si>
+    <t>張亞涵</t>
+  </si>
+  <si>
+    <t>025175</t>
+  </si>
+  <si>
+    <t>洪潔欣</t>
+  </si>
+  <si>
+    <t>彭昱中</t>
+  </si>
+  <si>
+    <t>022100</t>
+  </si>
+  <si>
+    <t>合流</t>
+  </si>
+  <si>
+    <t>蘇崇宇</t>
+  </si>
+  <si>
+    <t>022320</t>
+  </si>
+  <si>
+    <t>馬萌澤</t>
+  </si>
+  <si>
+    <t>023475</t>
+  </si>
+  <si>
+    <t>高紹銘</t>
+  </si>
+  <si>
+    <t>副總經理</t>
+  </si>
+  <si>
+    <t>經營企劃室</t>
+  </si>
+  <si>
+    <t>總務行政組</t>
+  </si>
+  <si>
+    <t>營業部</t>
+  </si>
+  <si>
+    <t>業務一課</t>
+  </si>
+  <si>
+    <t>業務一課-業務一組</t>
+  </si>
+  <si>
+    <t>024432</t>
+  </si>
+  <si>
+    <t>張秀穗</t>
+  </si>
+  <si>
+    <t>025535</t>
+  </si>
+  <si>
+    <t>徐藝庭</t>
+  </si>
+  <si>
+    <t>業務二課-業務二組</t>
+  </si>
+  <si>
+    <t>023394</t>
+  </si>
+  <si>
+    <t>葉俊良</t>
+  </si>
+  <si>
+    <t>024372</t>
+  </si>
+  <si>
+    <t>傅子袁</t>
+  </si>
+  <si>
+    <t>024696</t>
+  </si>
+  <si>
+    <t>蘇韻雯</t>
+  </si>
+  <si>
+    <t>營業部-國外開發組</t>
+  </si>
+  <si>
+    <t>營業管理室</t>
+  </si>
+  <si>
+    <t>客服課-客服組</t>
+  </si>
+  <si>
+    <t>客服課-成品倉管組</t>
+  </si>
+  <si>
+    <t>025537</t>
+  </si>
+  <si>
+    <t>曾晴翎</t>
+  </si>
+  <si>
+    <t>客服課-運輸組(外務組)</t>
+  </si>
+  <si>
+    <t>023176</t>
+  </si>
+  <si>
+    <t>王怡欽</t>
+  </si>
+  <si>
+    <t>工程課</t>
+  </si>
+  <si>
+    <t>024698</t>
+  </si>
+  <si>
+    <t>陶光柏</t>
+  </si>
+  <si>
+    <t>工程部-生產企劃組</t>
+  </si>
+  <si>
+    <t>024873</t>
+  </si>
+  <si>
+    <t>邱郁靜</t>
+  </si>
+  <si>
+    <t>025616</t>
+  </si>
+  <si>
+    <t>莊偉宏</t>
+  </si>
+  <si>
+    <t>品保部</t>
+  </si>
+  <si>
+    <t>品質保證課</t>
+  </si>
+  <si>
+    <t>品質保證組</t>
+  </si>
+  <si>
+    <t>008406</t>
+  </si>
+  <si>
+    <t>黃致翔</t>
+  </si>
+  <si>
+    <t>林秋月</t>
+  </si>
+  <si>
+    <t>023671</t>
+  </si>
+  <si>
+    <t>陳昱穎</t>
+  </si>
+  <si>
+    <t>024829</t>
+  </si>
+  <si>
+    <t>陳昱辰</t>
+  </si>
+  <si>
+    <t>024870</t>
+  </si>
+  <si>
+    <t>陳昭緯</t>
+  </si>
+  <si>
+    <t>025362</t>
+  </si>
+  <si>
+    <t>張育瑄</t>
+  </si>
+  <si>
+    <t>王金盆</t>
+  </si>
+  <si>
+    <t>成品檢驗一組</t>
+  </si>
+  <si>
+    <t>007625</t>
+  </si>
+  <si>
+    <t>闕怡如</t>
+  </si>
+  <si>
+    <t>023597</t>
+  </si>
+  <si>
+    <t>林子平</t>
+  </si>
+  <si>
+    <t>025289</t>
+  </si>
+  <si>
+    <t>李晏禎</t>
+  </si>
+  <si>
+    <t>成品檢驗二組</t>
+  </si>
+  <si>
+    <t>陳樺褘</t>
+  </si>
+  <si>
+    <t>生管部</t>
+  </si>
+  <si>
+    <t>生管課-排程組(製程)</t>
+  </si>
+  <si>
+    <t>生管課-資材倉管組</t>
+  </si>
+  <si>
+    <t>廖祈睿</t>
+  </si>
+  <si>
+    <t>023673</t>
+  </si>
+  <si>
+    <t>楊琦輝</t>
+  </si>
+  <si>
+    <t>採購課</t>
+  </si>
+  <si>
+    <t>採購課-採購組</t>
+  </si>
+  <si>
+    <t>採購課-外包組</t>
+  </si>
+  <si>
+    <t>林麗雯</t>
+  </si>
+  <si>
+    <t>印前課</t>
+  </si>
+  <si>
+    <t>吳俊怡</t>
+  </si>
+  <si>
+    <t>023878</t>
+  </si>
+  <si>
+    <t>盧綰丞</t>
+  </si>
+  <si>
+    <t>024531</t>
+  </si>
+  <si>
+    <t>鄭子韻</t>
+  </si>
+  <si>
+    <t>025199</t>
+  </si>
+  <si>
+    <t>張雅茹</t>
+  </si>
+  <si>
+    <t>製造部</t>
+  </si>
+  <si>
+    <t>廠務(部務)室</t>
+  </si>
+  <si>
+    <t>網版印刷課</t>
+  </si>
+  <si>
+    <t>網版印刷課-網張組</t>
+  </si>
+  <si>
+    <t>024313</t>
+  </si>
+  <si>
+    <t>羅芷芸</t>
+  </si>
+  <si>
+    <t>網版印刷課-網卷組</t>
+  </si>
+  <si>
+    <t>網版印刷課-網印加工組</t>
+  </si>
+  <si>
+    <t>楊木蓮</t>
+  </si>
+  <si>
+    <t>網版印刷課-網印準備組</t>
+  </si>
+  <si>
+    <t>數碼印刷課</t>
+  </si>
+  <si>
+    <t>綜合印刷課</t>
+  </si>
+  <si>
+    <t>綜合印刷課-凸版一組</t>
+  </si>
+  <si>
+    <t>綜合印刷課-凸版二組</t>
+  </si>
+  <si>
+    <t>陳永平</t>
+  </si>
+  <si>
+    <t>林汝璇</t>
+  </si>
+  <si>
+    <t>綜合印刷課-平版柔印組</t>
+  </si>
+  <si>
+    <t>綜合印刷課-綜印加工組</t>
+  </si>
+  <si>
+    <t>林軒立</t>
+  </si>
+  <si>
+    <t>023396</t>
+  </si>
+  <si>
+    <t>江孟倫</t>
+  </si>
+  <si>
+    <t>025290</t>
+  </si>
+  <si>
+    <t>郭宏源</t>
+  </si>
+  <si>
+    <t>綜合印刷課-綜印準備組</t>
+  </si>
+  <si>
+    <t>014515</t>
+  </si>
+  <si>
+    <t>陳仲禾</t>
+  </si>
+  <si>
+    <t>機工小組</t>
+  </si>
+  <si>
+    <t>不可抽前三大獎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3萬元</t>
+    <t>017201</t>
+  </si>
+  <si>
+    <t>吳宗烜</t>
+  </si>
+  <si>
+    <t>沈育宏</t>
+  </si>
+  <si>
+    <t>JIR</t>
+  </si>
+  <si>
+    <t>簡郁文</t>
+  </si>
+  <si>
+    <t>王長文</t>
+  </si>
+  <si>
+    <t>024874</t>
+  </si>
+  <si>
+    <t>余宗庭</t>
+  </si>
+  <si>
+    <t>004122</t>
+  </si>
+  <si>
+    <t>吳進仕</t>
+  </si>
+  <si>
+    <t>013988</t>
+  </si>
+  <si>
+    <t>曾欣庭</t>
+  </si>
+  <si>
+    <t>研發中心-昆山實驗室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2萬元</t>
+    <t>022001</t>
+  </si>
+  <si>
+    <t>方子軒</t>
+  </si>
+  <si>
+    <t>林晉丞</t>
+  </si>
+  <si>
+    <t>研發中心-專案產品開發組</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5000元</t>
+    <t>李浚源</t>
+  </si>
+  <si>
+    <t>012153</t>
+  </si>
+  <si>
+    <t>柯嘉生</t>
+  </si>
+  <si>
+    <t>工程中心-模切技術發展組</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2000元</t>
+    <t>林正智</t>
+  </si>
+  <si>
+    <t>024152</t>
+  </si>
+  <si>
+    <t>廖賜昌</t>
+  </si>
+  <si>
+    <t>資訊服務本部-維運作業組</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000元</t>
+    <t>林光興</t>
+  </si>
+  <si>
+    <t>資訊服務本部-客戶服務組</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>600元</t>
-  </si>
-  <si>
-    <t>600元</t>
+    <t>陳駿鵬</t>
+  </si>
+  <si>
+    <t>品保及系統管理中心</t>
+  </si>
+  <si>
+    <t>025473</t>
+  </si>
+  <si>
+    <t>蔡政龍</t>
+  </si>
+  <si>
+    <t>012561</t>
+  </si>
+  <si>
+    <t>周姿岑</t>
+  </si>
+  <si>
+    <t>品保及系統管理中心-品質保證組</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iPhone Xs</t>
+    <t>林文洲</t>
+  </si>
+  <si>
+    <t>電子事業部</t>
+  </si>
+  <si>
+    <t>014864</t>
+  </si>
+  <si>
+    <t>紀中元</t>
+  </si>
+  <si>
+    <t>策略採購組</t>
+  </si>
+  <si>
+    <t>000330</t>
+  </si>
+  <si>
+    <t>溫哲楷</t>
+  </si>
+  <si>
+    <t>電子事業部-市場營銷組</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賴俊誌</t>
+  </si>
+  <si>
+    <t>周宗正</t>
+  </si>
+  <si>
+    <t>日化事業部</t>
+  </si>
+  <si>
+    <t>002278</t>
+  </si>
+  <si>
+    <t>林姵辰</t>
+  </si>
+  <si>
+    <t>日化事業部-營銷組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>013763</t>
+  </si>
+  <si>
+    <t>馬茜甯</t>
   </si>
 </sst>
 </file>
@@ -2090,7 +2690,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="71">
+  <fonts count="75">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2244,6 +2844,8 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2281,6 +2883,7 @@
       <sz val="12"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2323,6 +2926,7 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2408,85 +3012,100 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="60"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color indexed="23"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2515,11 +3134,13 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2537,20 +3158,53 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2694,8 +3348,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2876,36 +3560,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3603">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -13174,33 +13828,75 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="16" xfId="800" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="17" xfId="800" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="67" fillId="0" borderId="17" xfId="800" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="70" fillId="0" borderId="17" xfId="800" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="17" xfId="799" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="799" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="799">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="33" borderId="10" xfId="800" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="72" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="73" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="74" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3603">
@@ -17133,2656 +17829,4618 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B330"/>
+  <dimension ref="A1:D379"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>611</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="D38" s="18"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="D40" s="18"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="D41" s="18"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="D42" s="18"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="D44" s="18"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="D45" s="18"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="D46" s="18"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="D47" s="18"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="D49" s="18"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="D50" s="18"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="D51" s="18"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="D52" s="18"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="D53" s="18"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="D54" s="18"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="D55" s="18"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="D56" s="18"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="D57" s="18"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="D58" s="18"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="D59" s="18"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="D60" s="18"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>658</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D61" s="18"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="D62" s="18"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="D64" s="18"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="D65" s="18"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="D66" s="18"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="D67" s="18"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="D68" s="18"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="D69" s="18"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="D70" s="18"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="D71" s="18"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="D72" s="18"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="D73" s="18"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="D74" s="18"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="D75" s="18"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="D76" s="18"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="D77" s="18"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="D78" s="18"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="D79" s="18"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="D80" s="18"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="D81" s="18"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="D82" s="18"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="D83" s="18"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="D84" s="18"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="D85" s="18"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="D86" s="18"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="D87" s="18"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="D88" s="18"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="D89" s="18"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="D90" s="18"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="D91" s="18"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="D92" s="18"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="D93" s="18"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="D94" s="18"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="D95" s="18"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="D96" s="18"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="D97" s="18"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="D98" s="18"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="D99" s="18"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="D100" s="18"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="D101" s="18"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="D102" s="18"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="D103" s="18"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="D104" s="18"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="D105" s="18"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="D106" s="18"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="D107" s="18"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>691</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="D108" s="18"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="D109" s="18"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="D110" s="18"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="D111" s="18"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="D112" s="18"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="D113" s="18"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="D114" s="18"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="D115" s="18"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="D116" s="18"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="D117" s="18"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="D118" s="18"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="D119" s="18"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="D120" s="18"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="D121" s="18"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="D122" s="18"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="D123" s="18"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="D124" s="18"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="D125" s="18"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="D126" s="18"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="D127" s="18"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="D128" s="18"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="D129" s="18"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="D130" s="18"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="D131" s="18"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="D132" s="18"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="D133" s="18"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>708</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="D134" s="18"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>709</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="D135" s="18"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="D136" s="18"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="D137" s="18"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="D138" s="18"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="D139" s="18"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="D140" s="18"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>718</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="D141" s="18"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="D142" s="18"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B143" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="D143" s="18"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="D144" s="18"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="B145" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="D145" s="18"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="B146" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="D146" s="18"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="B147" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="D147" s="18"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="B148" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="D148" s="18"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B149" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="D149" s="18"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="D150" s="18"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="B151" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="D151" s="18"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="B152" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="D152" s="18"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="B153" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="D153" s="18"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="B154" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="D154" s="18"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="B155" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="D155" s="18"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="B156" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="D156" s="18"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="B157" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="D157" s="18"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="B158" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="D158" s="18"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="B159" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="D159" s="18"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="B160" s="22" t="s">
+        <v>729</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="D160" s="18"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="B161" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="D161" s="18"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="B162" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="D162" s="18"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="22" t="s">
+        <v>731</v>
+      </c>
+      <c r="B163" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="D163" s="18"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="B164" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="D164" s="18"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="22" t="s">
+        <v>735</v>
+      </c>
+      <c r="B165" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="D165" s="18"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="B166" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="D166" s="18"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="B167" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="D167" s="18"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="B168" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="D168" s="18"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="B169" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="D169" s="18"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="B170" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="D170" s="18"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="B171" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="D171" s="18"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="B172" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="D172" s="18"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="B173" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="D173" s="18"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="B174" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="D174" s="18"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="B175" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="D175" s="18"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="B176" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="D176" s="18"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="B177" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="D177" s="18"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="B178" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="D178" s="18"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="B179" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="D179" s="18"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="B180" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="D180" s="18"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B181" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="D181" s="18"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B182" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="D182" s="18"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B183" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="D183" s="18"/>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="B184" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="D184" s="18"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B185" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C185" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="D185" s="18"/>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B186" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="D186" s="18"/>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B187" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="D187" s="18"/>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B188" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C188" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="D188" s="18"/>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B189" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="D189" s="18"/>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="B190" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="D190" s="18"/>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B191" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C191" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="D191" s="18"/>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="B192" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="D192" s="18"/>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B193" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="D193" s="18"/>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B194" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="D194" s="18"/>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B195" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="D195" s="18"/>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B196" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C196" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="D196" s="18"/>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B197" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="D197" s="18"/>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="22" t="s">
+        <v>750</v>
+      </c>
+      <c r="B198" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="D198" s="18"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="B199" s="22" t="s">
+        <v>753</v>
+      </c>
+      <c r="C199" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="D199" s="18"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B200" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C200" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="D200" s="18"/>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B201" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="C201" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="D201" s="18"/>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B202" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C202" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="D202" s="18"/>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="B203" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="C203" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="D203" s="18"/>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B204" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="C204" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="D204" s="18"/>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B205" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C205" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="D205" s="18"/>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B206" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C206" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="D206" s="18"/>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="B207" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="C207" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="D207" s="18"/>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="B208" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="C208" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="D208" s="18"/>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="B209" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="C209" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="D209" s="18"/>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="22" t="s">
+        <v>766</v>
+      </c>
+      <c r="B210" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="C210" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="D210" s="18"/>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="B211" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="C211" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="D211" s="18"/>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="B212" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="D212" s="18"/>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="B213" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C213" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="D213" s="18"/>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="B214" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="C214" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="D214" s="18"/>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="B215" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="C215" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="D215" s="18"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="B216" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="C216" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="D216" s="18"/>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="B217" s="22" t="s">
+        <v>771</v>
+      </c>
+      <c r="C217" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="D217" s="18"/>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="B218" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C218" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="D218" s="18"/>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="B219" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C219" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="D219" s="18"/>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="B220" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C220" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="D220" s="18"/>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="B221" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C221" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="D221" s="18"/>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="B222" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="C222" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="D222" s="18"/>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="B223" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="C223" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="D223" s="18"/>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="B224" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="D224" s="18"/>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="B225" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="C225" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="D225" s="18"/>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="B226" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="C226" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="D226" s="18"/>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="B227" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="C227" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="D227" s="18"/>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B228" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C228" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="D228" s="18"/>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="B229" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C229" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="D229" s="18"/>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="B230" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="C230" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="D230" s="18"/>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B231" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C231" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="D231" s="18"/>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="B232" s="22" t="s">
+        <v>777</v>
+      </c>
+      <c r="C232" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="D232" s="18"/>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="B233" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="D233" s="18"/>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B234" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="C234" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="D234" s="18"/>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="B235" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="D235" s="18"/>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B236" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="D236" s="18"/>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B237" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C237" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="D237" s="18"/>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B238" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C238" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="D238" s="18"/>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B239" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="C239" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="D239" s="18"/>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="B240" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C240" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="D240" s="18"/>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="B241" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C241" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="D241" s="18"/>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="B242" s="22" t="s">
+        <v>781</v>
+      </c>
+      <c r="C242" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="D242" s="18"/>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B243" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C243" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="D243" s="18"/>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="B244" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="C244" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="D244" s="18"/>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B245" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C245" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="D245" s="18"/>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="B246" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C246" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="D246" s="18"/>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="22" t="s">
+        <v>782</v>
+      </c>
+      <c r="B247" s="22" t="s">
+        <v>783</v>
+      </c>
+      <c r="C247" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="D247" s="18"/>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="B248" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C248" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="D248" s="18"/>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="B249" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="C249" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="D249" s="18"/>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="B250" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="C250" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="D250" s="18"/>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="B251" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="C251" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="D251" s="18"/>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B252" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="C252" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="D252" s="18"/>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B253" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="C253" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="D253" s="18"/>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="B254" s="22" t="s">
+        <v>787</v>
+      </c>
+      <c r="C254" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="D254" s="18"/>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="B255" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C255" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="D255" s="18"/>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="B256" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C256" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="D256" s="18"/>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="B257" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="C257" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="D257" s="18"/>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="B258" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C258" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="D258" s="18"/>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="B259" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="D259" s="18"/>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="B260" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="C260" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="D260" s="18"/>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="B261" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="D261" s="18"/>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="B262" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="D262" s="18"/>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="B263" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="D263" s="18"/>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="B264" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C264" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="D264" s="18"/>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="22" t="s">
+        <v>790</v>
+      </c>
+      <c r="B265" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="C265" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="D265" s="18"/>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="B266" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="C266" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="D266" s="18"/>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="B267" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="C267" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="D267" s="18"/>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="B268" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C268" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="D268" s="18"/>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B269" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C269" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="D269" s="18"/>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B270" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C270" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="D270" s="18"/>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B271" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C271" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="D271" s="18"/>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B272" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C272" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="D272" s="18"/>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B273" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C273" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="D273" s="18"/>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B274" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C274" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="D274" s="18"/>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B275" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C275" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="D275" s="18"/>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B276" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C276" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="D276" s="18"/>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B277" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C277" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="D277" s="18"/>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B278" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C278" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="D278" s="18"/>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B279" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C279" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="D279" s="18"/>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B280" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C280" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="D280" s="18"/>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="22" t="s">
+        <v>800</v>
+      </c>
+      <c r="B281" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="C281" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="D281" s="18"/>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B282" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C282" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="D282" s="18"/>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B283" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C283" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="D283" s="18"/>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B284" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C284" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="D284" s="18"/>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B285" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C285" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="D285" s="18"/>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B286" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C286" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="D286" s="18"/>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B287" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C287" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="D287" s="18"/>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B288" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C288" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="D288" s="18"/>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B289" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C289" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="D289" s="18"/>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B290" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C290" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="D290" s="18"/>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B291" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C291" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="D291" s="18"/>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B292" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C292" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="D292" s="18"/>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B293" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C293" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="D293" s="18"/>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="B294" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C294" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="D294" s="18"/>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B295" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C295" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="D295" s="18"/>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B296" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="C296" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="D296" s="18"/>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B297" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C297" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="D297" s="18"/>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B298" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C298" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="D298" s="18"/>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B299" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C299" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="D299" s="18"/>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B300" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C300" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="D300" s="18"/>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B301" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C301" s="17" t="s">
+        <v>805</v>
+      </c>
+      <c r="D301" s="18"/>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B302" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C302" s="17" t="s">
+        <v>805</v>
+      </c>
+      <c r="D302" s="18"/>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B303" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C303" s="17" t="s">
+        <v>805</v>
+      </c>
+      <c r="D303" s="18"/>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B304" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C304" s="17" t="s">
+        <v>805</v>
+      </c>
+      <c r="D304" s="18"/>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B305" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C305" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="D305" s="18"/>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B306" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C306" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="D306" s="18"/>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B307" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C307" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="D307" s="18"/>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B308" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C308" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="D308" s="18"/>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B309" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C309" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="D309" s="18"/>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B310" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C310" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="D310" s="18"/>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B311" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C311" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="D311" s="18"/>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B312" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C312" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="D312" s="18"/>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B313" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C313" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="D313" s="18"/>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B314" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C314" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="D314" s="18"/>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B315" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C315" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="D315" s="18"/>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B316" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C316" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="D316" s="18"/>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B317" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C317" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="D317" s="18"/>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B318" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C318" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="D318" s="18"/>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B319" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C319" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="D319" s="18"/>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B320" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C320" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="D320" s="18"/>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B321" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C321" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="D321" s="18"/>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B322" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C322" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="D322" s="18"/>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B323" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C323" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="D323" s="18"/>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B324" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C324" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="D324" s="18"/>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B325" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C325" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="D325" s="18"/>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B326" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="C326" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="D326" s="18"/>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B327" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C327" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="D327" s="18"/>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B328" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C328" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="D328" s="18"/>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B329" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C329" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="D329" s="18"/>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B330" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C330" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="D330" s="18"/>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B331" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="C331" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="D331" s="18"/>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B332" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C332" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="D332" s="18"/>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B333" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C333" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="D333" s="18"/>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B334" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C334" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="D334" s="18"/>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B335" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C335" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="D335" s="18"/>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B336" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C336" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="D336" s="18"/>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B337" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C337" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="D337" s="18"/>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B338" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C338" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="D338" s="18"/>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B339" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C339" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="D339" s="18"/>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B340" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C340" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="D340" s="18"/>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B341" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C341" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="D341" s="18"/>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B342" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C342" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="D342" s="18"/>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B343" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C343" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="D343" s="18"/>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B344" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C344" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="D344" s="18"/>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B345" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C345" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="D345" s="18"/>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B346" s="22" t="s">
+        <v>814</v>
+      </c>
+      <c r="C346" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="D346" s="18"/>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B347" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C347" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="D347" s="18"/>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B348" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C348" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="D348" s="18"/>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="22" t="s">
+        <v>815</v>
+      </c>
+      <c r="B349" s="22" t="s">
+        <v>816</v>
+      </c>
+      <c r="C349" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="D349" s="18"/>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B350" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C350" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="D350" s="18"/>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="22" t="s">
+        <v>817</v>
+      </c>
+      <c r="B351" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="C351" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="D351" s="18"/>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B352" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C352" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="D352" s="18"/>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B353" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C353" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="D353" s="18"/>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="B354" s="16" t="s">
+        <v>821</v>
+      </c>
+      <c r="C354" s="16" t="s">
+        <v>822</v>
+      </c>
+      <c r="D354" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="B355" s="16" t="s">
+        <v>825</v>
+      </c>
+      <c r="C355" s="16" t="s">
+        <v>822</v>
+      </c>
+      <c r="D355" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="B356" s="16" t="s">
+        <v>826</v>
+      </c>
+      <c r="C356" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="D356" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="B357" s="16" t="s">
+        <v>828</v>
+      </c>
+      <c r="C357" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="D357" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="B358" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="C358" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="D358" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="B359" s="16" t="s">
+        <v>829</v>
+      </c>
+      <c r="C359" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="D359" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="B360" s="16" t="s">
+        <v>831</v>
+      </c>
+      <c r="C360" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="D360" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="B361" s="16" t="s">
+        <v>833</v>
+      </c>
+      <c r="C361" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="D361" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="B362" s="16" t="s">
+        <v>835</v>
+      </c>
+      <c r="C362" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="D362" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="B363" s="16" t="s">
+        <v>838</v>
+      </c>
+      <c r="C363" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="D363" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="B364" s="16" t="s">
+        <v>839</v>
+      </c>
+      <c r="C364" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="D364" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B365" s="16" t="s">
+        <v>841</v>
+      </c>
+      <c r="C365" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="D365" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="B366" s="16" t="s">
+        <v>843</v>
+      </c>
+      <c r="C366" s="16" t="s">
+        <v>844</v>
+      </c>
+      <c r="D366" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="B367" s="16" t="s">
+        <v>845</v>
+      </c>
+      <c r="C367" s="16" t="s">
+        <v>844</v>
+      </c>
+      <c r="D367" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="B368" s="16" t="s">
+        <v>847</v>
+      </c>
+      <c r="C368" s="16" t="s">
+        <v>848</v>
+      </c>
+      <c r="D368" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="B369" s="16" t="s">
+        <v>849</v>
+      </c>
+      <c r="C369" s="16" t="s">
+        <v>850</v>
+      </c>
+      <c r="D369" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B370" s="16" t="s">
+        <v>851</v>
+      </c>
+      <c r="C370" s="16" t="s">
+        <v>852</v>
+      </c>
+      <c r="D370" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="15" t="s">
+        <v>853</v>
+      </c>
+      <c r="B371" s="16" t="s">
+        <v>854</v>
+      </c>
+      <c r="C371" s="16" t="s">
+        <v>852</v>
+      </c>
+      <c r="D371" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="15" t="s">
+        <v>855</v>
+      </c>
+      <c r="B372" s="16" t="s">
+        <v>856</v>
+      </c>
+      <c r="C372" s="16" t="s">
+        <v>857</v>
+      </c>
+      <c r="D372" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B373" s="16" t="s">
+        <v>858</v>
+      </c>
+      <c r="C373" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="D373" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="B374" s="16" t="s">
+        <v>861</v>
+      </c>
+      <c r="C374" s="16" t="s">
+        <v>862</v>
+      </c>
+      <c r="D374" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="B375" s="16" t="s">
+        <v>864</v>
+      </c>
+      <c r="C375" s="16" t="s">
+        <v>865</v>
+      </c>
+      <c r="D375" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B228" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="B230" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="B236" s="6" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="B242" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B246" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B281" s="2" t="s">
+      <c r="B376" s="16" t="s">
+        <v>866</v>
+      </c>
+      <c r="C376" s="16" t="s">
+        <v>865</v>
+      </c>
+      <c r="D376" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="15" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B290" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B301" s="6" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="B303" s="6" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="B304" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="B306" s="6" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="B309" s="6" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B310" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="B312" s="6" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="B316" s="6" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="B317" s="6" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B318" s="4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="B319" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="B320" s="6" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="B322" s="6" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B323" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B325" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B327" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="B330" s="6" t="s">
-        <v>629</v>
+      <c r="B377" s="16" t="s">
+        <v>867</v>
+      </c>
+      <c r="C377" s="16" t="s">
+        <v>868</v>
+      </c>
+      <c r="D377" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="B378" s="16" t="s">
+        <v>870</v>
+      </c>
+      <c r="C378" s="16" t="s">
+        <v>871</v>
+      </c>
+      <c r="D378" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="15" t="s">
+        <v>872</v>
+      </c>
+      <c r="B379" s="16" t="s">
+        <v>873</v>
+      </c>
+      <c r="C379" s="16" t="s">
+        <v>871</v>
+      </c>
+      <c r="D379" s="18" t="s">
+        <v>823</v>
       </c>
     </row>
   </sheetData>
@@ -19798,140 +22456,184 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>661</v>
+        <v>581</v>
       </c>
       <c r="B1" t="s">
-        <v>660</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>670</v>
+      <c r="B2" s="3" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>663</v>
+      <c r="B3" s="2" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>664</v>
+      <c r="B4" s="4" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>662</v>
+      <c r="B5" s="6" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8">
+      <c r="B6" s="7" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="33">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="8">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="33">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="8">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="33">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>667</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="8">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="33">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="8">
+      <c r="B11" s="9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="33">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8">
+      <c r="B12" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="33">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="8">
+      <c r="B13" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="33">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="8">
+      <c r="B14" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="33">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="8">
+      <c r="B15" s="7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="33">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>668</v>
+      <c r="B16" s="7" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="49.5">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="33">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="33">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="33">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="33">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/NameListSample.xlsx
+++ b/NameListSample.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="877">
   <si>
     <t>王眾慧</t>
   </si>
@@ -2638,6 +2638,46 @@
   </si>
   <si>
     <t>獎項</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董事長獎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡李常董獎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行長獎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林副總裁獎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周副總裁獎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡總經理獎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳總經理獎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭總經理獎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林資深副總獎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡資深副總獎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2847,6 +2887,7 @@
       <sz val="12"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2889,6 +2930,7 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2974,85 +3016,100 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="60"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color indexed="23"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3081,11 +3138,13 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -22315,12 +22374,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G362" sqref="G362"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.75" defaultRowHeight="16.5"/>
@@ -22350,7 +22409,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>841</v>
+        <v>867</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -22358,7 +22417,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>842</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -22366,7 +22425,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>843</v>
+        <v>869</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -22374,7 +22433,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>844</v>
+        <v>870</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -22382,7 +22441,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>852</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -22390,7 +22449,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -22398,7 +22457,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>853</v>
+        <v>873</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -22406,7 +22465,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>846</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -22414,7 +22473,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>854</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -22422,7 +22481,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>855</v>
+        <v>876</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -22430,7 +22489,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -22438,15 +22497,15 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>858</v>
+      <c r="B15" s="17" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -22454,7 +22513,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -22462,7 +22521,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -22470,7 +22529,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -22478,95 +22537,95 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>863</v>
+      <c r="B20" s="16" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>864</v>
+      <c r="B21" s="16" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>864</v>
+      <c r="B22" s="16" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>864</v>
+      <c r="B23" s="16" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>847</v>
+      <c r="B24" s="16" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>847</v>
+      <c r="B25" s="16" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>847</v>
+      <c r="B26" s="16" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>847</v>
+      <c r="B27" s="16" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>847</v>
+      <c r="B28" s="16" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>847</v>
+      <c r="B29" s="16" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>847</v>
+      <c r="B30" s="16" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -22574,7 +22633,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -22582,7 +22641,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -22590,7 +22649,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -22598,7 +22657,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -22606,7 +22665,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -22614,7 +22673,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -22622,7 +22681,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -22630,7 +22689,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -22638,7 +22697,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -22646,7 +22705,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -22654,7 +22713,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -22662,7 +22721,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -22670,7 +22729,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -22678,7 +22737,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -22686,7 +22745,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -22694,7 +22753,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -22702,7 +22761,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -22710,7 +22769,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -22718,7 +22777,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -22726,7 +22785,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -22734,7 +22793,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -22742,7 +22801,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -22750,7 +22809,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -22758,7 +22817,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -22766,7 +22825,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -22774,7 +22833,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -22782,7 +22841,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -22790,7 +22849,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -22798,7 +22857,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -22806,7 +22865,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -22814,7 +22873,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -22822,7 +22881,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -22830,7 +22889,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -22854,7 +22913,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -22862,7 +22921,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -22870,7 +22929,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -22878,7 +22937,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -22886,7 +22945,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -22894,7 +22953,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -22902,7 +22961,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -22910,7 +22969,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -22918,7 +22977,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -22926,7 +22985,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -22934,7 +22993,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -22942,7 +23001,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -22950,7 +23009,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -22958,7 +23017,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -22966,7 +23025,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -22974,7 +23033,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -22982,7 +23041,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -22990,7 +23049,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -22998,7 +23057,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -23006,7 +23065,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -23014,7 +23073,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -23022,7 +23081,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -23030,7 +23089,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -23038,7 +23097,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -23046,7 +23105,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -23054,7 +23113,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -23062,7 +23121,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -23070,7 +23129,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -23078,8 +23137,219 @@
         <v>93</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>851</v>
-      </c>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="15">
+        <v>94</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="15">
+        <v>95</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="15">
+        <v>96</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="15">
+        <v>97</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="15">
+        <v>98</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="15">
+        <v>99</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="15">
+        <v>100</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="15">
+        <v>101</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="15">
+        <v>102</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="15">
+        <v>103</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="15">
+        <v>104</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="B106"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="B107"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="B108"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="B109"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="B110"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="B111"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="B112"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138"/>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/NameListSample.xlsx
+++ b/NameListSample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8070" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="8025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表" sheetId="2" r:id="rId1"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表!$A$1:$B$329</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="1036">
   <si>
     <t>王眾慧</t>
   </si>
@@ -2169,18 +2169,9 @@
     <t>郭宏源</t>
   </si>
   <si>
-    <t>集團董事長</t>
-  </si>
-  <si>
-    <t>董事長室-新事業組</t>
-  </si>
-  <si>
     <t>稽核室</t>
   </si>
   <si>
-    <t>集團執行長</t>
-  </si>
-  <si>
     <t>執行長室</t>
   </si>
   <si>
@@ -2190,9 +2181,6 @@
     <t>執行長室-企業流程管理組</t>
   </si>
   <si>
-    <t>執行長室-改善活動推進小組</t>
-  </si>
-  <si>
     <t>執行長室-專案四組</t>
   </si>
   <si>
@@ -2253,153 +2241,39 @@
     <t>資訊技術及應用中心-集團印前組</t>
   </si>
   <si>
-    <t>資訊服務本部</t>
-  </si>
-  <si>
-    <t>資訊服務本部-維運作業組</t>
-  </si>
-  <si>
-    <t>資訊服務本部-客戶服務組</t>
-  </si>
-  <si>
-    <t>資訊系統本部</t>
-  </si>
-  <si>
-    <t>資訊系統本部-系統整合組</t>
-  </si>
-  <si>
-    <t>資訊系統本部-程式開發組</t>
-  </si>
-  <si>
     <t>電子事業部-策略管理組</t>
   </si>
   <si>
     <t>電子事業部-市場營銷組</t>
   </si>
   <si>
-    <t>合流</t>
-  </si>
-  <si>
-    <t>副總經理</t>
-  </si>
-  <si>
     <t>經營企劃室</t>
   </si>
   <si>
-    <t>總務行政組</t>
-  </si>
-  <si>
     <t>營業部</t>
   </si>
   <si>
-    <t>業務一課</t>
-  </si>
-  <si>
-    <t>業務一課-業務一組</t>
-  </si>
-  <si>
-    <t>業務二課-業務二組</t>
-  </si>
-  <si>
     <t>營業部-國外開發組</t>
   </si>
   <si>
-    <t>營業管理室</t>
-  </si>
-  <si>
-    <t>客服課-客服組</t>
-  </si>
-  <si>
-    <t>客服課-成品倉管組</t>
-  </si>
-  <si>
-    <t>客服課-運輸組(外務組)</t>
-  </si>
-  <si>
-    <t>工程課</t>
-  </si>
-  <si>
     <t>工程部-生產企劃組</t>
   </si>
   <si>
     <t>品保部</t>
   </si>
   <si>
-    <t>品質保證課</t>
-  </si>
-  <si>
-    <t>品質保證組</t>
-  </si>
-  <si>
-    <t>成品檢驗一組</t>
-  </si>
-  <si>
-    <t>成品檢驗二組</t>
-  </si>
-  <si>
     <t>生管部</t>
   </si>
   <si>
-    <t>生管課-排程組(製程)</t>
-  </si>
-  <si>
-    <t>生管課-資材倉管組</t>
-  </si>
-  <si>
-    <t>採購課</t>
-  </si>
-  <si>
-    <t>採購課-採購組</t>
-  </si>
-  <si>
-    <t>採購課-外包組</t>
-  </si>
-  <si>
     <t>印前課</t>
   </si>
   <si>
     <t>製造部</t>
   </si>
   <si>
-    <t>廠務(部務)室</t>
-  </si>
-  <si>
-    <t>網版印刷課</t>
-  </si>
-  <si>
-    <t>網版印刷課-網張組</t>
-  </si>
-  <si>
-    <t>網版印刷課-網卷組</t>
-  </si>
-  <si>
-    <t>網版印刷課-網印加工組</t>
-  </si>
-  <si>
     <t>網版印刷課-網印準備組</t>
   </si>
   <si>
-    <t>數碼印刷課</t>
-  </si>
-  <si>
-    <t>綜合印刷課</t>
-  </si>
-  <si>
-    <t>綜合印刷課-凸版一組</t>
-  </si>
-  <si>
-    <t>綜合印刷課-凸版二組</t>
-  </si>
-  <si>
-    <t>綜合印刷課-平版柔印組</t>
-  </si>
-  <si>
-    <t>綜合印刷課-綜印加工組</t>
-  </si>
-  <si>
-    <t>綜合印刷課-綜印準備組</t>
-  </si>
-  <si>
     <t>機工小組</t>
   </si>
   <si>
@@ -2415,9 +2289,6 @@
     <t>吳宗烜</t>
   </si>
   <si>
-    <t>JIR</t>
-  </si>
-  <si>
     <t>沈育宏</t>
   </si>
   <si>
@@ -2539,10 +2410,6 @@
   </si>
   <si>
     <t>日化事業部-營銷組</t>
-  </si>
-  <si>
-    <t>不可抽主管紅包奬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>郵政禮券7萬元</t>
@@ -2641,43 +2508,686 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>董事長獎</t>
+    <t>董事長</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蔡李常董獎</t>
+    <t>董事長</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>執行長獎</t>
+    <t>執行長</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>林副總裁獎</t>
+    <t>林副總裁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周副總裁獎</t>
+    <t>周副總裁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蔡總經理獎</t>
+    <t>蔡總經理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陳總經理獎</t>
+    <t>陳總經理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>郭總經理獎</t>
+    <t>郭總經理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>林資深副總獎</t>
+    <t>林資深副總</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蔡資深副總獎</t>
+    <t>蔡資深副總</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡總經理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅總經理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙總經理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張總經理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊總經理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽獎四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽獎三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽獎二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽獎一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林副總</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡副總</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄭副總</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳副總</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳總工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溫協理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖協理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莊偉宏經理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林棣涓經理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏嘉宏資深經理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董事長獎 20,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行長獎 18,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林資深副總獎 6,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳總經理獎 10,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭總經理獎 10,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡總經理獎 10,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李監察人</t>
+  </si>
+  <si>
+    <t>李監察人奬 10,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅總經理奬 10,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡資深副總獎 6,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林副總裁獎 10,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000元現金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3600元現金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000048</t>
+  </si>
+  <si>
+    <t>李淑慧</t>
+  </si>
+  <si>
+    <t>000120</t>
+  </si>
+  <si>
+    <t>楊青澐</t>
+  </si>
+  <si>
+    <t>000189</t>
+  </si>
+  <si>
+    <t>陳必紹</t>
+  </si>
+  <si>
+    <t>000325</t>
+  </si>
+  <si>
+    <t>張友懋</t>
+  </si>
+  <si>
+    <t>000381</t>
+  </si>
+  <si>
+    <t>陳恩朗</t>
+  </si>
+  <si>
+    <t>000423</t>
+  </si>
+  <si>
+    <t>廖國榮</t>
+  </si>
+  <si>
+    <t>000917</t>
+  </si>
+  <si>
+    <t>陳麒元</t>
+  </si>
+  <si>
+    <t>001039</t>
+  </si>
+  <si>
+    <t>朱益諒</t>
+  </si>
+  <si>
+    <t>001376</t>
+  </si>
+  <si>
+    <t>劉家翔</t>
+  </si>
+  <si>
+    <t>001573</t>
+  </si>
+  <si>
+    <t>伍和慶</t>
+  </si>
+  <si>
+    <t>001611</t>
+  </si>
+  <si>
+    <t>雷震天</t>
+  </si>
+  <si>
+    <t>001700</t>
+  </si>
+  <si>
+    <t>黃怡瑄</t>
+  </si>
+  <si>
+    <t>003931</t>
+  </si>
+  <si>
+    <t>趙克裕</t>
+  </si>
+  <si>
+    <t>004078</t>
+  </si>
+  <si>
+    <t>蘇保嘉</t>
+  </si>
+  <si>
+    <t>004873</t>
+  </si>
+  <si>
+    <t>吳曼蒂</t>
+  </si>
+  <si>
+    <t>006557</t>
+  </si>
+  <si>
+    <t>蔣明儒</t>
+  </si>
+  <si>
+    <t>007121</t>
+  </si>
+  <si>
+    <t>郭哲良</t>
+  </si>
+  <si>
+    <t>007122</t>
+  </si>
+  <si>
+    <t>盧奕禎</t>
+  </si>
+  <si>
+    <t>007779</t>
+  </si>
+  <si>
+    <t>張瀚元</t>
+  </si>
+  <si>
+    <t>008511</t>
+  </si>
+  <si>
+    <t>李汶瑾</t>
+  </si>
+  <si>
+    <t>009085</t>
+  </si>
+  <si>
+    <t>王琮斌</t>
+  </si>
+  <si>
+    <t>009774</t>
+  </si>
+  <si>
+    <t>朱怡國</t>
+  </si>
+  <si>
+    <t>010941</t>
+  </si>
+  <si>
+    <t>劉政雄</t>
+  </si>
+  <si>
+    <t>010942</t>
+  </si>
+  <si>
+    <t>林明儀</t>
+  </si>
+  <si>
+    <t>011521</t>
+  </si>
+  <si>
+    <t>洪明良</t>
+  </si>
+  <si>
+    <t>011523</t>
+  </si>
+  <si>
+    <t>何秀香</t>
+  </si>
+  <si>
+    <t>011618</t>
+  </si>
+  <si>
+    <t>廖建達</t>
+  </si>
+  <si>
+    <t>012312</t>
+  </si>
+  <si>
+    <t>王身榮</t>
+  </si>
+  <si>
+    <t>012373</t>
+  </si>
+  <si>
+    <t>周家杰</t>
+  </si>
+  <si>
+    <t>012502</t>
+  </si>
+  <si>
+    <t>張峻銘</t>
+  </si>
+  <si>
+    <t>012735</t>
+  </si>
+  <si>
+    <t>張皓涵</t>
+  </si>
+  <si>
+    <t>014300</t>
+  </si>
+  <si>
+    <t>丁曉中</t>
+  </si>
+  <si>
+    <t>015612</t>
+  </si>
+  <si>
+    <t>連賢斌</t>
+  </si>
+  <si>
+    <t>016438</t>
+  </si>
+  <si>
+    <t>謝秋雯</t>
+  </si>
+  <si>
+    <t>016525</t>
+  </si>
+  <si>
+    <t>李怡嫺</t>
+  </si>
+  <si>
+    <t>016946</t>
+  </si>
+  <si>
+    <t>黃紫星</t>
+  </si>
+  <si>
+    <t>017332</t>
+  </si>
+  <si>
+    <t>陶立昇</t>
+  </si>
+  <si>
+    <t>017460</t>
+  </si>
+  <si>
+    <t>陳世育</t>
+  </si>
+  <si>
+    <t>019199</t>
+  </si>
+  <si>
+    <t>簡妙鳳</t>
+  </si>
+  <si>
+    <t>021635</t>
+  </si>
+  <si>
+    <t>曾仁沾</t>
+  </si>
+  <si>
+    <t>022683</t>
+  </si>
+  <si>
+    <t>林怡良</t>
+  </si>
+  <si>
+    <t>023026</t>
+  </si>
+  <si>
+    <t>祁琬婷</t>
+  </si>
+  <si>
+    <t>023333</t>
+  </si>
+  <si>
+    <t>黃凱聲</t>
+  </si>
+  <si>
+    <t>023426</t>
+  </si>
+  <si>
+    <t>關羽茹</t>
+  </si>
+  <si>
+    <t>023801</t>
+  </si>
+  <si>
+    <t>黃興展</t>
+  </si>
+  <si>
+    <t>024371</t>
+  </si>
+  <si>
+    <t>蔡婉均</t>
+  </si>
+  <si>
+    <t>024529</t>
+  </si>
+  <si>
+    <t>沈桐柏</t>
+  </si>
+  <si>
+    <t>024888</t>
+  </si>
+  <si>
+    <t>連曼筑</t>
+  </si>
+  <si>
+    <t>025459</t>
+  </si>
+  <si>
+    <t>許曉玉</t>
+  </si>
+  <si>
+    <t>025582</t>
+  </si>
+  <si>
+    <t>林俊成</t>
+  </si>
+  <si>
+    <t>董事長室</t>
+  </si>
+  <si>
+    <t>執行長室-新事業組(虛擬)</t>
+  </si>
+  <si>
+    <t>執行長室-改善推進小組</t>
+  </si>
+  <si>
+    <t>資訊技術及應用中心-資訊服務本部</t>
+  </si>
+  <si>
+    <t>資訊技術及應用中心-維運作業組</t>
+  </si>
+  <si>
+    <t>資訊技術及應用中心-客戶服務組</t>
+  </si>
+  <si>
+    <t>資訊技術及應用中心-資訊系統本部</t>
+  </si>
+  <si>
+    <t>資訊技術及應用中心-系統整合組</t>
+  </si>
+  <si>
+    <t>資訊技術及應用中心-程式開發組</t>
+  </si>
+  <si>
+    <t>財會中心-財務組-新事業(虛擬)</t>
+  </si>
+  <si>
+    <t>經營階層</t>
+  </si>
+  <si>
+    <t>經營企劃室-總務行政組</t>
+  </si>
+  <si>
+    <t>營業部業務一課</t>
+  </si>
+  <si>
+    <t>營業部業務一課-業務一組</t>
+  </si>
+  <si>
+    <t>營業部業務二課-業務二組</t>
+  </si>
+  <si>
+    <t>營業部營業管理室</t>
+  </si>
+  <si>
+    <t>營業部客服課-客服組</t>
+  </si>
+  <si>
+    <t>營業部客服課-成品倉管組</t>
+  </si>
+  <si>
+    <t>營業部客服課-運輸組</t>
+  </si>
+  <si>
+    <t>工程部工程課</t>
+  </si>
+  <si>
+    <t>品保部品質保證課</t>
+  </si>
+  <si>
+    <t>品保部品質保證課-品質保證組</t>
+  </si>
+  <si>
+    <t>品保部-成品檢驗一組</t>
+  </si>
+  <si>
+    <t>品保部-成品檢驗二組</t>
+  </si>
+  <si>
+    <t>生管部生管課-排程組(製程)</t>
+  </si>
+  <si>
+    <t>生管部生管課-資材組</t>
+  </si>
+  <si>
+    <t>生管部採購課</t>
+  </si>
+  <si>
+    <t>生管部採購課-採購組</t>
+  </si>
+  <si>
+    <t>生管部採購課-外包組</t>
+  </si>
+  <si>
+    <t>製造部-廠務(部務)室</t>
+  </si>
+  <si>
+    <t>製造部網版印刷課</t>
+  </si>
+  <si>
+    <t>製造部網版印刷課-網張組</t>
+  </si>
+  <si>
+    <t>製造部網版印刷課-網卷組</t>
+  </si>
+  <si>
+    <t>製造部網版印刷課-網印加工組</t>
+  </si>
+  <si>
+    <t>製造部數碼印刷課</t>
+  </si>
+  <si>
+    <t>製造部綜合印刷課</t>
+  </si>
+  <si>
+    <t>製造部綜合印刷課-凸版一組</t>
+  </si>
+  <si>
+    <t>製造部綜合印刷課-凸版二組</t>
+  </si>
+  <si>
+    <t>製造部綜合印刷課-平版柔印組</t>
+  </si>
+  <si>
+    <t>製造部綜合印刷課-綜印加工組</t>
+  </si>
+  <si>
+    <t>製造部綜合印刷課-綜印準備組</t>
+  </si>
+  <si>
+    <t>JIR專案組</t>
+  </si>
+  <si>
+    <t>深圳正峰-生產</t>
+  </si>
+  <si>
+    <t>深圳正峰-經營</t>
+  </si>
+  <si>
+    <t>昆山華冠-經營</t>
+  </si>
+  <si>
+    <t>昆山華冠-銷售</t>
+  </si>
+  <si>
+    <t>昆山華冠-研發</t>
+  </si>
+  <si>
+    <t>上海正偉-銷售</t>
+  </si>
+  <si>
+    <t>河南正茂-經營</t>
+  </si>
+  <si>
+    <t>重慶正永-銷售</t>
+  </si>
+  <si>
+    <t>昆山華冠-生產</t>
+  </si>
+  <si>
+    <t>重慶正永-經營</t>
+  </si>
+  <si>
+    <t>越南廠-生產</t>
+  </si>
+  <si>
+    <t>越南廠-經營</t>
+  </si>
+  <si>
+    <t>深圳正峰-銷售</t>
+  </si>
+  <si>
+    <t>重慶正永-生產</t>
+  </si>
+  <si>
+    <t>河南正茂-銷售</t>
+  </si>
+  <si>
+    <t>河南正茂-財會</t>
+  </si>
+  <si>
+    <t>烟台正展-銷售</t>
+  </si>
+  <si>
+    <t>上海正偉-生產</t>
+  </si>
+  <si>
+    <t>昆山華冠-品保</t>
+  </si>
+  <si>
+    <t>深圳正峰-財會</t>
+  </si>
+  <si>
+    <t>香港辦事處</t>
+  </si>
+  <si>
+    <t>越南廠-銷售</t>
+  </si>
+  <si>
+    <t>美國辦事處</t>
+  </si>
+  <si>
+    <t>天津正合-經營</t>
+  </si>
+  <si>
+    <t>天津正合-人資</t>
+  </si>
+  <si>
+    <t>烟台正展-財會</t>
+  </si>
+  <si>
+    <t>不可抽主管紅包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周副總裁獎 10,000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2887,7 +3397,6 @@
       <sz val="12"/>
       <color indexed="17"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2930,7 +3439,6 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3016,100 +3524,85 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="60"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="52"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="52"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color indexed="23"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color indexed="56"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="56"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="63"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3138,13 +3631,11 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3191,7 +3682,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3347,8 +3838,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3529,6 +4026,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3603">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -13797,7 +14320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13857,6 +14380,24 @@
     </xf>
     <xf numFmtId="0" fontId="72" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="799" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3603">
@@ -17792,12 +18333,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D375"/>
+  <dimension ref="A1:D425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B90" sqref="B90"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17830,8 +18371,8 @@
       <c r="B2" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>715</v>
+      <c r="C2" s="23" t="s">
+        <v>966</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -17842,8 +18383,8 @@
       <c r="B3" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>716</v>
+      <c r="C3" s="23" t="s">
+        <v>967</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -17854,8 +18395,8 @@
       <c r="B4" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>717</v>
+      <c r="C4" s="23" t="s">
+        <v>715</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -17866,8 +18407,8 @@
       <c r="B5" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>717</v>
+      <c r="C5" s="23" t="s">
+        <v>715</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -17878,8 +18419,8 @@
       <c r="B6" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>718</v>
+      <c r="C6" s="23" t="s">
+        <v>716</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -17890,8 +18431,8 @@
       <c r="B7" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>719</v>
+      <c r="C7" s="23" t="s">
+        <v>716</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -17902,8 +18443,8 @@
       <c r="B8" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>719</v>
+      <c r="C8" s="23" t="s">
+        <v>716</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -17914,8 +18455,8 @@
       <c r="B9" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>719</v>
+      <c r="C9" s="23" t="s">
+        <v>716</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -17926,8 +18467,8 @@
       <c r="B10" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>719</v>
+      <c r="C10" s="23" t="s">
+        <v>716</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -17938,8 +18479,8 @@
       <c r="B11" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>720</v>
+      <c r="C11" s="23" t="s">
+        <v>717</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -17950,8 +18491,8 @@
       <c r="B12" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>720</v>
+      <c r="C12" s="23" t="s">
+        <v>717</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -17962,8 +18503,8 @@
       <c r="B13" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>721</v>
+      <c r="C13" s="23" t="s">
+        <v>718</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -17974,8 +18515,8 @@
       <c r="B14" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>721</v>
+      <c r="C14" s="23" t="s">
+        <v>718</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -17986,8 +18527,8 @@
       <c r="B15" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>721</v>
+      <c r="C15" s="23" t="s">
+        <v>718</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -17998,8 +18539,8 @@
       <c r="B16" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>722</v>
+      <c r="C16" s="23" t="s">
+        <v>968</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -18010,8 +18551,8 @@
       <c r="B17" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>722</v>
+      <c r="C17" s="23" t="s">
+        <v>968</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -18022,8 +18563,8 @@
       <c r="B18" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>723</v>
+      <c r="C18" s="23" t="s">
+        <v>719</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -18034,8 +18575,8 @@
       <c r="B19" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>723</v>
+      <c r="C19" s="23" t="s">
+        <v>719</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -18046,8 +18587,8 @@
       <c r="B20" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>723</v>
+      <c r="C20" s="23" t="s">
+        <v>719</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -18058,8 +18599,8 @@
       <c r="B21" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>723</v>
+      <c r="C21" s="23" t="s">
+        <v>719</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -18070,8 +18611,8 @@
       <c r="B22" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>724</v>
+      <c r="C22" s="23" t="s">
+        <v>720</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -18082,8 +18623,8 @@
       <c r="B23" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>724</v>
+      <c r="C23" s="23" t="s">
+        <v>720</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -18094,8 +18635,8 @@
       <c r="B24" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>724</v>
+      <c r="C24" s="23" t="s">
+        <v>720</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -18106,8 +18647,8 @@
       <c r="B25" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>724</v>
+      <c r="C25" s="23" t="s">
+        <v>720</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -18118,8 +18659,8 @@
       <c r="B26" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>724</v>
+      <c r="C26" s="23" t="s">
+        <v>720</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -18130,8 +18671,8 @@
       <c r="B27" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>725</v>
+      <c r="C27" s="23" t="s">
+        <v>721</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -18142,8 +18683,8 @@
       <c r="B28" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>726</v>
+      <c r="C28" s="23" t="s">
+        <v>722</v>
       </c>
       <c r="D28" s="6"/>
     </row>
@@ -18154,8 +18695,8 @@
       <c r="B29" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>726</v>
+      <c r="C29" s="23" t="s">
+        <v>722</v>
       </c>
       <c r="D29" s="6"/>
     </row>
@@ -18166,8 +18707,8 @@
       <c r="B30" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>726</v>
+      <c r="C30" s="23" t="s">
+        <v>722</v>
       </c>
       <c r="D30" s="6"/>
     </row>
@@ -18178,8 +18719,8 @@
       <c r="B31" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>726</v>
+      <c r="C31" s="23" t="s">
+        <v>722</v>
       </c>
       <c r="D31" s="6"/>
     </row>
@@ -18190,8 +18731,8 @@
       <c r="B32" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>726</v>
+      <c r="C32" s="23" t="s">
+        <v>722</v>
       </c>
       <c r="D32" s="6"/>
     </row>
@@ -18202,8 +18743,8 @@
       <c r="B33" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>726</v>
+      <c r="C33" s="23" t="s">
+        <v>722</v>
       </c>
       <c r="D33" s="6"/>
     </row>
@@ -18214,8 +18755,8 @@
       <c r="B34" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>726</v>
+      <c r="C34" s="23" t="s">
+        <v>722</v>
       </c>
       <c r="D34" s="6"/>
     </row>
@@ -18226,8 +18767,8 @@
       <c r="B35" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>727</v>
+      <c r="C35" s="23" t="s">
+        <v>723</v>
       </c>
       <c r="D35" s="6"/>
     </row>
@@ -18238,8 +18779,8 @@
       <c r="B36" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>727</v>
+      <c r="C36" s="23" t="s">
+        <v>723</v>
       </c>
       <c r="D36" s="6"/>
     </row>
@@ -18250,8 +18791,8 @@
       <c r="B37" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>727</v>
+      <c r="C37" s="23" t="s">
+        <v>723</v>
       </c>
       <c r="D37" s="6"/>
     </row>
@@ -18262,8 +18803,8 @@
       <c r="B38" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>727</v>
+      <c r="C38" s="23" t="s">
+        <v>723</v>
       </c>
       <c r="D38" s="6"/>
     </row>
@@ -18274,8 +18815,8 @@
       <c r="B39" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>728</v>
+      <c r="C39" s="23" t="s">
+        <v>724</v>
       </c>
       <c r="D39" s="6"/>
     </row>
@@ -18286,8 +18827,8 @@
       <c r="B40" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>728</v>
+      <c r="C40" s="23" t="s">
+        <v>724</v>
       </c>
       <c r="D40" s="6"/>
     </row>
@@ -18298,8 +18839,8 @@
       <c r="B41" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>729</v>
+      <c r="C41" s="23" t="s">
+        <v>725</v>
       </c>
       <c r="D41" s="6"/>
     </row>
@@ -18310,8 +18851,8 @@
       <c r="B42" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>729</v>
+      <c r="C42" s="23" t="s">
+        <v>725</v>
       </c>
       <c r="D42" s="6"/>
     </row>
@@ -18322,8 +18863,8 @@
       <c r="B43" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>729</v>
+      <c r="C43" s="23" t="s">
+        <v>725</v>
       </c>
       <c r="D43" s="6"/>
     </row>
@@ -18334,8 +18875,8 @@
       <c r="B44" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>729</v>
+      <c r="C44" s="23" t="s">
+        <v>725</v>
       </c>
       <c r="D44" s="6"/>
     </row>
@@ -18346,8 +18887,8 @@
       <c r="B45" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>729</v>
+      <c r="C45" s="23" t="s">
+        <v>725</v>
       </c>
       <c r="D45" s="6"/>
     </row>
@@ -18358,8 +18899,8 @@
       <c r="B46" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>729</v>
+      <c r="C46" s="23" t="s">
+        <v>725</v>
       </c>
       <c r="D46" s="6"/>
     </row>
@@ -18370,8 +18911,8 @@
       <c r="B47" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>729</v>
+      <c r="C47" s="23" t="s">
+        <v>725</v>
       </c>
       <c r="D47" s="6"/>
     </row>
@@ -18382,8 +18923,8 @@
       <c r="B48" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>730</v>
+      <c r="C48" s="23" t="s">
+        <v>726</v>
       </c>
       <c r="D48" s="6"/>
     </row>
@@ -18394,8 +18935,8 @@
       <c r="B49" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>730</v>
+      <c r="C49" s="23" t="s">
+        <v>726</v>
       </c>
       <c r="D49" s="6"/>
     </row>
@@ -18406,8 +18947,8 @@
       <c r="B50" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>731</v>
+      <c r="C50" s="23" t="s">
+        <v>727</v>
       </c>
       <c r="D50" s="6"/>
     </row>
@@ -18418,8 +18959,8 @@
       <c r="B51" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>731</v>
+      <c r="C51" s="23" t="s">
+        <v>727</v>
       </c>
       <c r="D51" s="6"/>
     </row>
@@ -18430,8 +18971,8 @@
       <c r="B52" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>732</v>
+      <c r="C52" s="23" t="s">
+        <v>728</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -18442,8 +18983,8 @@
       <c r="B53" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>732</v>
+      <c r="C53" s="23" t="s">
+        <v>728</v>
       </c>
       <c r="D53" s="6"/>
     </row>
@@ -18454,8 +18995,8 @@
       <c r="B54" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>732</v>
+      <c r="C54" s="23" t="s">
+        <v>728</v>
       </c>
       <c r="D54" s="6"/>
     </row>
@@ -18466,8 +19007,8 @@
       <c r="B55" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>732</v>
+      <c r="C55" s="23" t="s">
+        <v>728</v>
       </c>
       <c r="D55" s="6"/>
     </row>
@@ -18478,8 +19019,8 @@
       <c r="B56" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>732</v>
+      <c r="C56" s="23" t="s">
+        <v>728</v>
       </c>
       <c r="D56" s="6"/>
     </row>
@@ -18490,8 +19031,8 @@
       <c r="B57" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>732</v>
+      <c r="C57" s="23" t="s">
+        <v>728</v>
       </c>
       <c r="D57" s="6"/>
     </row>
@@ -18502,8 +19043,8 @@
       <c r="B58" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>732</v>
+      <c r="C58" s="23" t="s">
+        <v>728</v>
       </c>
       <c r="D58" s="6"/>
     </row>
@@ -18514,8 +19055,8 @@
       <c r="B59" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>732</v>
+      <c r="C59" s="23" t="s">
+        <v>728</v>
       </c>
       <c r="D59" s="6"/>
     </row>
@@ -18526,8 +19067,8 @@
       <c r="B60" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>732</v>
+      <c r="C60" s="23" t="s">
+        <v>728</v>
       </c>
       <c r="D60" s="6"/>
     </row>
@@ -18538,8 +19079,8 @@
       <c r="B61" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>733</v>
+      <c r="C61" s="23" t="s">
+        <v>729</v>
       </c>
       <c r="D61" s="6"/>
     </row>
@@ -18550,8 +19091,8 @@
       <c r="B62" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>733</v>
+      <c r="C62" s="23" t="s">
+        <v>729</v>
       </c>
       <c r="D62" s="6"/>
     </row>
@@ -18562,8 +19103,8 @@
       <c r="B63" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>733</v>
+      <c r="C63" s="23" t="s">
+        <v>729</v>
       </c>
       <c r="D63" s="6"/>
     </row>
@@ -18574,8 +19115,8 @@
       <c r="B64" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>733</v>
+      <c r="C64" s="23" t="s">
+        <v>729</v>
       </c>
       <c r="D64" s="6"/>
     </row>
@@ -18586,8 +19127,8 @@
       <c r="B65" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>733</v>
+      <c r="C65" s="23" t="s">
+        <v>729</v>
       </c>
       <c r="D65" s="6"/>
     </row>
@@ -18598,8 +19139,8 @@
       <c r="B66" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>734</v>
+      <c r="C66" s="23" t="s">
+        <v>730</v>
       </c>
       <c r="D66" s="6"/>
     </row>
@@ -18610,8 +19151,8 @@
       <c r="B67" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>734</v>
+      <c r="C67" s="23" t="s">
+        <v>730</v>
       </c>
       <c r="D67" s="6"/>
     </row>
@@ -18622,8 +19163,8 @@
       <c r="B68" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>734</v>
+      <c r="C68" s="23" t="s">
+        <v>730</v>
       </c>
       <c r="D68" s="6"/>
     </row>
@@ -18634,8 +19175,8 @@
       <c r="B69" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>734</v>
+      <c r="C69" s="23" t="s">
+        <v>730</v>
       </c>
       <c r="D69" s="6"/>
     </row>
@@ -18646,8 +19187,8 @@
       <c r="B70" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>735</v>
+      <c r="C70" s="23" t="s">
+        <v>731</v>
       </c>
       <c r="D70" s="6"/>
     </row>
@@ -18658,8 +19199,8 @@
       <c r="B71" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>735</v>
+      <c r="C71" s="23" t="s">
+        <v>731</v>
       </c>
       <c r="D71" s="6"/>
     </row>
@@ -18670,8 +19211,8 @@
       <c r="B72" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>735</v>
+      <c r="C72" s="23" t="s">
+        <v>731</v>
       </c>
       <c r="D72" s="6"/>
     </row>
@@ -18682,8 +19223,8 @@
       <c r="B73" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>735</v>
+      <c r="C73" s="23" t="s">
+        <v>731</v>
       </c>
       <c r="D73" s="6"/>
     </row>
@@ -18694,8 +19235,8 @@
       <c r="B74" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>735</v>
+      <c r="C74" s="23" t="s">
+        <v>731</v>
       </c>
       <c r="D74" s="6"/>
     </row>
@@ -18706,8 +19247,8 @@
       <c r="B75" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>736</v>
+      <c r="C75" s="23" t="s">
+        <v>732</v>
       </c>
       <c r="D75" s="6"/>
     </row>
@@ -18718,8 +19259,8 @@
       <c r="B76" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>737</v>
+      <c r="C76" s="23" t="s">
+        <v>733</v>
       </c>
       <c r="D76" s="6"/>
     </row>
@@ -18730,8 +19271,8 @@
       <c r="B77" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>737</v>
+      <c r="C77" s="23" t="s">
+        <v>733</v>
       </c>
       <c r="D77" s="6"/>
     </row>
@@ -18742,8 +19283,8 @@
       <c r="B78" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>737</v>
+      <c r="C78" s="23" t="s">
+        <v>733</v>
       </c>
       <c r="D78" s="6"/>
     </row>
@@ -18754,8 +19295,8 @@
       <c r="B79" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>737</v>
+      <c r="C79" s="23" t="s">
+        <v>733</v>
       </c>
       <c r="D79" s="6"/>
     </row>
@@ -18766,8 +19307,8 @@
       <c r="B80" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>737</v>
+      <c r="C80" s="23" t="s">
+        <v>733</v>
       </c>
       <c r="D80" s="6"/>
     </row>
@@ -18778,8 +19319,8 @@
       <c r="B81" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>737</v>
+      <c r="C81" s="23" t="s">
+        <v>733</v>
       </c>
       <c r="D81" s="6"/>
     </row>
@@ -18790,8 +19331,8 @@
       <c r="B82" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>738</v>
+      <c r="C82" s="23" t="s">
+        <v>734</v>
       </c>
       <c r="D82" s="6"/>
     </row>
@@ -18802,8 +19343,8 @@
       <c r="B83" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>738</v>
+      <c r="C83" s="23" t="s">
+        <v>734</v>
       </c>
       <c r="D83" s="6"/>
     </row>
@@ -18814,8 +19355,8 @@
       <c r="B84" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>739</v>
+      <c r="C84" s="23" t="s">
+        <v>735</v>
       </c>
       <c r="D84" s="6"/>
     </row>
@@ -18826,8 +19367,8 @@
       <c r="B85" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>739</v>
+      <c r="C85" s="23" t="s">
+        <v>735</v>
       </c>
       <c r="D85" s="6"/>
     </row>
@@ -18838,8 +19379,8 @@
       <c r="B86" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>739</v>
+      <c r="C86" s="23" t="s">
+        <v>735</v>
       </c>
       <c r="D86" s="6"/>
     </row>
@@ -18850,8 +19391,8 @@
       <c r="B87" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>739</v>
+      <c r="C87" s="23" t="s">
+        <v>735</v>
       </c>
       <c r="D87" s="6"/>
     </row>
@@ -18862,8 +19403,8 @@
       <c r="B88" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>739</v>
+      <c r="C88" s="23" t="s">
+        <v>735</v>
       </c>
       <c r="D88" s="6"/>
     </row>
@@ -18874,8 +19415,8 @@
       <c r="B89" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>739</v>
+      <c r="C89" s="23" t="s">
+        <v>735</v>
       </c>
       <c r="D89" s="6"/>
     </row>
@@ -18886,8 +19427,8 @@
       <c r="B90" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>739</v>
+      <c r="C90" s="23" t="s">
+        <v>735</v>
       </c>
       <c r="D90" s="6"/>
     </row>
@@ -18898,8 +19439,8 @@
       <c r="B91" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>739</v>
+      <c r="C91" s="23" t="s">
+        <v>735</v>
       </c>
       <c r="D91" s="6"/>
     </row>
@@ -18910,8 +19451,8 @@
       <c r="B92" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>739</v>
+      <c r="C92" s="23" t="s">
+        <v>735</v>
       </c>
       <c r="D92" s="6"/>
     </row>
@@ -18922,8 +19463,8 @@
       <c r="B93" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>739</v>
+      <c r="C93" s="23" t="s">
+        <v>735</v>
       </c>
       <c r="D93" s="6"/>
     </row>
@@ -18934,8 +19475,8 @@
       <c r="B94" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>740</v>
+      <c r="C94" s="23" t="s">
+        <v>736</v>
       </c>
       <c r="D94" s="6"/>
     </row>
@@ -18946,8 +19487,8 @@
       <c r="B95" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>740</v>
+      <c r="C95" s="23" t="s">
+        <v>736</v>
       </c>
       <c r="D95" s="6"/>
     </row>
@@ -18958,8 +19499,8 @@
       <c r="B96" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>741</v>
+      <c r="C96" s="23" t="s">
+        <v>737</v>
       </c>
       <c r="D96" s="6"/>
     </row>
@@ -18970,8 +19511,8 @@
       <c r="B97" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>741</v>
+      <c r="C97" s="23" t="s">
+        <v>737</v>
       </c>
       <c r="D97" s="6"/>
     </row>
@@ -18982,8 +19523,8 @@
       <c r="B98" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C98" s="7" t="s">
-        <v>742</v>
+      <c r="C98" s="23" t="s">
+        <v>738</v>
       </c>
       <c r="D98" s="6"/>
     </row>
@@ -18994,8 +19535,8 @@
       <c r="B99" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C99" s="7" t="s">
-        <v>742</v>
+      <c r="C99" s="23" t="s">
+        <v>738</v>
       </c>
       <c r="D99" s="6"/>
     </row>
@@ -19006,8 +19547,8 @@
       <c r="B100" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C100" s="7" t="s">
-        <v>742</v>
+      <c r="C100" s="23" t="s">
+        <v>738</v>
       </c>
       <c r="D100" s="6"/>
     </row>
@@ -19018,8 +19559,8 @@
       <c r="B101" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>742</v>
+      <c r="C101" s="23" t="s">
+        <v>738</v>
       </c>
       <c r="D101" s="6"/>
     </row>
@@ -19030,8 +19571,8 @@
       <c r="B102" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>743</v>
+      <c r="C102" s="23" t="s">
+        <v>969</v>
       </c>
       <c r="D102" s="6"/>
     </row>
@@ -19042,8 +19583,8 @@
       <c r="B103" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C103" s="7" t="s">
-        <v>744</v>
+      <c r="C103" s="23" t="s">
+        <v>970</v>
       </c>
       <c r="D103" s="6"/>
     </row>
@@ -19054,8 +19595,8 @@
       <c r="B104" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C104" s="7" t="s">
-        <v>744</v>
+      <c r="C104" s="23" t="s">
+        <v>970</v>
       </c>
       <c r="D104" s="6"/>
     </row>
@@ -19066,8 +19607,8 @@
       <c r="B105" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C105" s="7" t="s">
-        <v>744</v>
+      <c r="C105" s="23" t="s">
+        <v>970</v>
       </c>
       <c r="D105" s="6"/>
     </row>
@@ -19078,8 +19619,8 @@
       <c r="B106" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C106" s="7" t="s">
-        <v>744</v>
+      <c r="C106" s="23" t="s">
+        <v>970</v>
       </c>
       <c r="D106" s="6"/>
     </row>
@@ -19090,8 +19631,8 @@
       <c r="B107" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="C107" s="7" t="s">
-        <v>744</v>
+      <c r="C107" s="23" t="s">
+        <v>970</v>
       </c>
       <c r="D107" s="6"/>
     </row>
@@ -19102,8 +19643,8 @@
       <c r="B108" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C108" s="7" t="s">
-        <v>745</v>
+      <c r="C108" s="23" t="s">
+        <v>971</v>
       </c>
       <c r="D108" s="6"/>
     </row>
@@ -19114,8 +19655,8 @@
       <c r="B109" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C109" s="7" t="s">
-        <v>745</v>
+      <c r="C109" s="23" t="s">
+        <v>971</v>
       </c>
       <c r="D109" s="6"/>
     </row>
@@ -19126,8 +19667,8 @@
       <c r="B110" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C110" s="7" t="s">
-        <v>745</v>
+      <c r="C110" s="23" t="s">
+        <v>971</v>
       </c>
       <c r="D110" s="6"/>
     </row>
@@ -19138,8 +19679,8 @@
       <c r="B111" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C111" s="7" t="s">
-        <v>746</v>
+      <c r="C111" s="23" t="s">
+        <v>972</v>
       </c>
       <c r="D111" s="6"/>
     </row>
@@ -19150,8 +19691,8 @@
       <c r="B112" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="7" t="s">
-        <v>747</v>
+      <c r="C112" s="23" t="s">
+        <v>973</v>
       </c>
       <c r="D112" s="6"/>
     </row>
@@ -19162,8 +19703,8 @@
       <c r="B113" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C113" s="7" t="s">
-        <v>747</v>
+      <c r="C113" s="23" t="s">
+        <v>973</v>
       </c>
       <c r="D113" s="6"/>
     </row>
@@ -19174,8 +19715,8 @@
       <c r="B114" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C114" s="7" t="s">
-        <v>747</v>
+      <c r="C114" s="23" t="s">
+        <v>973</v>
       </c>
       <c r="D114" s="6"/>
     </row>
@@ -19186,8 +19727,8 @@
       <c r="B115" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C115" s="7" t="s">
-        <v>747</v>
+      <c r="C115" s="23" t="s">
+        <v>973</v>
       </c>
       <c r="D115" s="6"/>
     </row>
@@ -19198,8 +19739,8 @@
       <c r="B116" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C116" s="7" t="s">
-        <v>748</v>
+      <c r="C116" s="23" t="s">
+        <v>974</v>
       </c>
       <c r="D116" s="6"/>
     </row>
@@ -19210,8 +19751,8 @@
       <c r="B117" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C117" s="7" t="s">
-        <v>748</v>
+      <c r="C117" s="23" t="s">
+        <v>974</v>
       </c>
       <c r="D117" s="6"/>
     </row>
@@ -19222,8 +19763,8 @@
       <c r="B118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C118" s="7" t="s">
-        <v>748</v>
+      <c r="C118" s="23" t="s">
+        <v>974</v>
       </c>
       <c r="D118" s="6"/>
     </row>
@@ -19234,8 +19775,8 @@
       <c r="B119" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="7" t="s">
-        <v>748</v>
+      <c r="C119" s="23" t="s">
+        <v>974</v>
       </c>
       <c r="D119" s="6"/>
     </row>
@@ -19246,8 +19787,8 @@
       <c r="B120" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C120" s="7" t="s">
-        <v>748</v>
+      <c r="C120" s="23" t="s">
+        <v>974</v>
       </c>
       <c r="D120" s="6"/>
     </row>
@@ -19258,8 +19799,8 @@
       <c r="B121" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="7" t="s">
-        <v>748</v>
+      <c r="C121" s="23" t="s">
+        <v>974</v>
       </c>
       <c r="D121" s="6"/>
     </row>
@@ -19270,8 +19811,8 @@
       <c r="B122" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C122" s="7" t="s">
-        <v>748</v>
+      <c r="C122" s="23" t="s">
+        <v>974</v>
       </c>
       <c r="D122" s="6"/>
     </row>
@@ -19282,8 +19823,8 @@
       <c r="B123" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C123" s="7" t="s">
-        <v>748</v>
+      <c r="C123" s="23" t="s">
+        <v>974</v>
       </c>
       <c r="D123" s="6"/>
     </row>
@@ -19294,8 +19835,8 @@
       <c r="B124" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C124" s="7" t="s">
-        <v>748</v>
+      <c r="C124" s="23" t="s">
+        <v>974</v>
       </c>
       <c r="D124" s="6"/>
     </row>
@@ -19306,8 +19847,8 @@
       <c r="B125" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C125" s="7" t="s">
-        <v>749</v>
+      <c r="C125" s="23" t="s">
+        <v>739</v>
       </c>
       <c r="D125" s="6"/>
     </row>
@@ -19318,8 +19859,8 @@
       <c r="B126" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>749</v>
+      <c r="C126" s="23" t="s">
+        <v>739</v>
       </c>
       <c r="D126" s="6"/>
     </row>
@@ -19330,8 +19871,8 @@
       <c r="B127" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C127" s="7" t="s">
-        <v>749</v>
+      <c r="C127" s="23" t="s">
+        <v>739</v>
       </c>
       <c r="D127" s="6"/>
     </row>
@@ -19342,8 +19883,8 @@
       <c r="B128" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C128" s="7" t="s">
-        <v>749</v>
+      <c r="C128" s="23" t="s">
+        <v>739</v>
       </c>
       <c r="D128" s="6"/>
     </row>
@@ -19354,8 +19895,8 @@
       <c r="B129" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C129" s="7" t="s">
-        <v>750</v>
+      <c r="C129" s="23" t="s">
+        <v>740</v>
       </c>
       <c r="D129" s="6"/>
     </row>
@@ -19366,8 +19907,8 @@
       <c r="B130" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C130" s="7" t="s">
-        <v>750</v>
+      <c r="C130" s="23" t="s">
+        <v>740</v>
       </c>
       <c r="D130" s="6"/>
     </row>
@@ -19378,8 +19919,8 @@
       <c r="B131" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C131" s="7" t="s">
-        <v>750</v>
+      <c r="C131" s="23" t="s">
+        <v>740</v>
       </c>
       <c r="D131" s="6"/>
     </row>
@@ -19390,8 +19931,8 @@
       <c r="B132" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C132" s="7" t="s">
-        <v>750</v>
+      <c r="C132" s="23" t="s">
+        <v>740</v>
       </c>
       <c r="D132" s="6"/>
     </row>
@@ -19402,8 +19943,8 @@
       <c r="B133" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>750</v>
+      <c r="C133" s="23" t="s">
+        <v>740</v>
       </c>
       <c r="D133" s="6"/>
     </row>
@@ -19414,8 +19955,8 @@
       <c r="B134" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C134" s="7" t="s">
-        <v>750</v>
+      <c r="C134" s="23" t="s">
+        <v>740</v>
       </c>
       <c r="D134" s="6"/>
     </row>
@@ -19426,8 +19967,8 @@
       <c r="B135" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C135" s="7" t="s">
-        <v>750</v>
+      <c r="C135" s="23" t="s">
+        <v>740</v>
       </c>
       <c r="D135" s="6"/>
     </row>
@@ -19438,8 +19979,8 @@
       <c r="B136" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C136" s="7" t="s">
-        <v>748</v>
+      <c r="C136" s="23" t="s">
+        <v>974</v>
       </c>
       <c r="D136" s="6"/>
     </row>
@@ -19450,8 +19991,8 @@
       <c r="B137" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="C137" s="7" t="s">
-        <v>751</v>
+      <c r="C137" s="23" t="s">
+        <v>975</v>
       </c>
       <c r="D137" s="6"/>
     </row>
@@ -19462,8 +20003,8 @@
       <c r="B138" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C138" s="7" t="s">
-        <v>751</v>
+      <c r="C138" s="23" t="s">
+        <v>975</v>
       </c>
       <c r="D138" s="6"/>
     </row>
@@ -19474,8 +20015,8 @@
       <c r="B139" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="C139" s="7" t="s">
-        <v>751</v>
+      <c r="C139" s="23" t="s">
+        <v>975</v>
       </c>
       <c r="D139" s="6"/>
     </row>
@@ -19486,8 +20027,8 @@
       <c r="B140" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="C140" s="7" t="s">
-        <v>752</v>
+      <c r="C140" s="23" t="s">
+        <v>976</v>
       </c>
       <c r="D140" s="6"/>
     </row>
@@ -19498,8 +20039,8 @@
       <c r="B141" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C141" s="7" t="s">
-        <v>753</v>
+      <c r="C141" s="23" t="s">
+        <v>741</v>
       </c>
       <c r="D141" s="6"/>
     </row>
@@ -19510,8 +20051,8 @@
       <c r="B142" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="C142" s="7" t="s">
-        <v>753</v>
+      <c r="C142" s="23" t="s">
+        <v>741</v>
       </c>
       <c r="D142" s="6"/>
     </row>
@@ -19522,8 +20063,8 @@
       <c r="B143" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="C143" s="7" t="s">
-        <v>753</v>
+      <c r="C143" s="23" t="s">
+        <v>741</v>
       </c>
       <c r="D143" s="6"/>
     </row>
@@ -19534,8 +20075,8 @@
       <c r="B144" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="C144" s="7" t="s">
-        <v>753</v>
+      <c r="C144" s="23" t="s">
+        <v>741</v>
       </c>
       <c r="D144" s="6"/>
     </row>
@@ -19546,8 +20087,8 @@
       <c r="B145" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="C145" s="7" t="s">
-        <v>753</v>
+      <c r="C145" s="23" t="s">
+        <v>741</v>
       </c>
       <c r="D145" s="6"/>
     </row>
@@ -19558,8 +20099,8 @@
       <c r="B146" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C146" s="7" t="s">
-        <v>754</v>
+      <c r="C146" s="23" t="s">
+        <v>977</v>
       </c>
       <c r="D146" s="6"/>
     </row>
@@ -19570,8 +20111,8 @@
       <c r="B147" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="C147" s="7" t="s">
-        <v>754</v>
+      <c r="C147" s="23" t="s">
+        <v>977</v>
       </c>
       <c r="D147" s="6"/>
     </row>
@@ -19582,8 +20123,8 @@
       <c r="B148" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="C148" s="7" t="s">
-        <v>754</v>
+      <c r="C148" s="23" t="s">
+        <v>977</v>
       </c>
       <c r="D148" s="6"/>
     </row>
@@ -19594,8 +20135,8 @@
       <c r="B149" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C149" s="7" t="s">
-        <v>754</v>
+      <c r="C149" s="23" t="s">
+        <v>977</v>
       </c>
       <c r="D149" s="6"/>
     </row>
@@ -19606,8 +20147,8 @@
       <c r="B150" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C150" s="7" t="s">
-        <v>754</v>
+      <c r="C150" s="23" t="s">
+        <v>977</v>
       </c>
       <c r="D150" s="6"/>
     </row>
@@ -19618,8 +20159,8 @@
       <c r="B151" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="C151" s="7" t="s">
-        <v>754</v>
+      <c r="C151" s="23" t="s">
+        <v>977</v>
       </c>
       <c r="D151" s="6"/>
     </row>
@@ -19630,8 +20171,8 @@
       <c r="B152" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="C152" s="7" t="s">
-        <v>755</v>
+      <c r="C152" s="23" t="s">
+        <v>742</v>
       </c>
       <c r="D152" s="6"/>
     </row>
@@ -19642,8 +20183,8 @@
       <c r="B153" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C153" s="7" t="s">
-        <v>755</v>
+      <c r="C153" s="23" t="s">
+        <v>742</v>
       </c>
       <c r="D153" s="6"/>
     </row>
@@ -19654,8 +20195,8 @@
       <c r="B154" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C154" s="7" t="s">
-        <v>756</v>
+      <c r="C154" s="23" t="s">
+        <v>978</v>
       </c>
       <c r="D154" s="6"/>
     </row>
@@ -19666,8 +20207,8 @@
       <c r="B155" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="C155" s="7" t="s">
-        <v>757</v>
+      <c r="C155" s="23" t="s">
+        <v>979</v>
       </c>
       <c r="D155" s="6"/>
     </row>
@@ -19678,8 +20219,8 @@
       <c r="B156" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C156" s="7" t="s">
-        <v>757</v>
+      <c r="C156" s="23" t="s">
+        <v>979</v>
       </c>
       <c r="D156" s="6"/>
     </row>
@@ -19690,8 +20231,8 @@
       <c r="B157" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="C157" s="7" t="s">
-        <v>757</v>
+      <c r="C157" s="23" t="s">
+        <v>979</v>
       </c>
       <c r="D157" s="6"/>
     </row>
@@ -19702,8 +20243,8 @@
       <c r="B158" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="C158" s="7" t="s">
-        <v>757</v>
+      <c r="C158" s="23" t="s">
+        <v>979</v>
       </c>
       <c r="D158" s="6"/>
     </row>
@@ -19714,8 +20255,8 @@
       <c r="B159" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>758</v>
+      <c r="C159" s="23" t="s">
+        <v>980</v>
       </c>
       <c r="D159" s="6"/>
     </row>
@@ -19726,8 +20267,8 @@
       <c r="B160" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="C160" s="7" t="s">
-        <v>758</v>
+      <c r="C160" s="23" t="s">
+        <v>980</v>
       </c>
       <c r="D160" s="6"/>
     </row>
@@ -19738,8 +20279,8 @@
       <c r="B161" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>758</v>
+      <c r="C161" s="23" t="s">
+        <v>980</v>
       </c>
       <c r="D161" s="6"/>
     </row>
@@ -19750,8 +20291,8 @@
       <c r="B162" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>758</v>
+      <c r="C162" s="23" t="s">
+        <v>980</v>
       </c>
       <c r="D162" s="6"/>
     </row>
@@ -19762,8 +20303,8 @@
       <c r="B163" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="C163" s="7" t="s">
-        <v>759</v>
+      <c r="C163" s="23" t="s">
+        <v>743</v>
       </c>
       <c r="D163" s="6"/>
     </row>
@@ -19774,8 +20315,8 @@
       <c r="B164" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="C164" s="7" t="s">
-        <v>760</v>
+      <c r="C164" s="23" t="s">
+        <v>981</v>
       </c>
       <c r="D164" s="6"/>
     </row>
@@ -19786,8 +20327,8 @@
       <c r="B165" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C165" s="7" t="s">
-        <v>760</v>
+      <c r="C165" s="23" t="s">
+        <v>981</v>
       </c>
       <c r="D165" s="6"/>
     </row>
@@ -19798,8 +20339,8 @@
       <c r="B166" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="C166" s="7" t="s">
-        <v>760</v>
+      <c r="C166" s="23" t="s">
+        <v>981</v>
       </c>
       <c r="D166" s="6"/>
     </row>
@@ -19810,8 +20351,8 @@
       <c r="B167" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="C167" s="7" t="s">
-        <v>760</v>
+      <c r="C167" s="23" t="s">
+        <v>981</v>
       </c>
       <c r="D167" s="6"/>
     </row>
@@ -19822,8 +20363,8 @@
       <c r="B168" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="C168" s="7" t="s">
-        <v>760</v>
+      <c r="C168" s="23" t="s">
+        <v>981</v>
       </c>
       <c r="D168" s="6"/>
     </row>
@@ -19834,8 +20375,8 @@
       <c r="B169" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="C169" s="7" t="s">
-        <v>760</v>
+      <c r="C169" s="23" t="s">
+        <v>981</v>
       </c>
       <c r="D169" s="6"/>
     </row>
@@ -19846,8 +20387,8 @@
       <c r="B170" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C170" s="7" t="s">
-        <v>761</v>
+      <c r="C170" s="23" t="s">
+        <v>982</v>
       </c>
       <c r="D170" s="6"/>
     </row>
@@ -19858,8 +20399,8 @@
       <c r="B171" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C171" s="7" t="s">
-        <v>761</v>
+      <c r="C171" s="23" t="s">
+        <v>982</v>
       </c>
       <c r="D171" s="6"/>
     </row>
@@ -19870,8 +20411,8 @@
       <c r="B172" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="C172" s="7" t="s">
-        <v>761</v>
+      <c r="C172" s="23" t="s">
+        <v>982</v>
       </c>
       <c r="D172" s="6"/>
     </row>
@@ -19882,8 +20423,8 @@
       <c r="B173" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C173" s="7" t="s">
-        <v>761</v>
+      <c r="C173" s="23" t="s">
+        <v>982</v>
       </c>
       <c r="D173" s="6"/>
     </row>
@@ -19894,8 +20435,8 @@
       <c r="B174" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="C174" s="7" t="s">
-        <v>761</v>
+      <c r="C174" s="23" t="s">
+        <v>982</v>
       </c>
       <c r="D174" s="6"/>
     </row>
@@ -19906,8 +20447,8 @@
       <c r="B175" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C175" s="7" t="s">
-        <v>762</v>
+      <c r="C175" s="23" t="s">
+        <v>983</v>
       </c>
       <c r="D175" s="6"/>
     </row>
@@ -19918,8 +20459,8 @@
       <c r="B176" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="C176" s="7" t="s">
-        <v>762</v>
+      <c r="C176" s="23" t="s">
+        <v>983</v>
       </c>
       <c r="D176" s="6"/>
     </row>
@@ -19930,8 +20471,8 @@
       <c r="B177" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="C177" s="7" t="s">
-        <v>762</v>
+      <c r="C177" s="23" t="s">
+        <v>983</v>
       </c>
       <c r="D177" s="6"/>
     </row>
@@ -19942,8 +20483,8 @@
       <c r="B178" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C178" s="7" t="s">
-        <v>763</v>
+      <c r="C178" s="23" t="s">
+        <v>984</v>
       </c>
       <c r="D178" s="6"/>
     </row>
@@ -19954,8 +20495,8 @@
       <c r="B179" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C179" s="7" t="s">
-        <v>763</v>
+      <c r="C179" s="23" t="s">
+        <v>984</v>
       </c>
       <c r="D179" s="6"/>
     </row>
@@ -19966,8 +20507,8 @@
       <c r="B180" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C180" s="7" t="s">
-        <v>763</v>
+      <c r="C180" s="23" t="s">
+        <v>984</v>
       </c>
       <c r="D180" s="6"/>
     </row>
@@ -19978,8 +20519,8 @@
       <c r="B181" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="C181" s="7" t="s">
-        <v>763</v>
+      <c r="C181" s="23" t="s">
+        <v>984</v>
       </c>
       <c r="D181" s="6"/>
     </row>
@@ -19990,8 +20531,8 @@
       <c r="B182" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C182" s="7" t="s">
-        <v>764</v>
+      <c r="C182" s="23" t="s">
+        <v>985</v>
       </c>
       <c r="D182" s="6"/>
     </row>
@@ -20002,8 +20543,8 @@
       <c r="B183" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C183" s="7" t="s">
-        <v>764</v>
+      <c r="C183" s="23" t="s">
+        <v>985</v>
       </c>
       <c r="D183" s="6"/>
     </row>
@@ -20014,8 +20555,8 @@
       <c r="B184" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C184" s="7" t="s">
-        <v>764</v>
+      <c r="C184" s="23" t="s">
+        <v>985</v>
       </c>
       <c r="D184" s="6"/>
     </row>
@@ -20026,8 +20567,8 @@
       <c r="B185" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C185" s="7" t="s">
-        <v>764</v>
+      <c r="C185" s="23" t="s">
+        <v>985</v>
       </c>
       <c r="D185" s="6"/>
     </row>
@@ -20038,8 +20579,8 @@
       <c r="B186" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C186" s="7" t="s">
-        <v>764</v>
+      <c r="C186" s="23" t="s">
+        <v>985</v>
       </c>
       <c r="D186" s="6"/>
     </row>
@@ -20050,8 +20591,8 @@
       <c r="B187" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C187" s="7" t="s">
-        <v>764</v>
+      <c r="C187" s="23" t="s">
+        <v>985</v>
       </c>
       <c r="D187" s="6"/>
     </row>
@@ -20062,8 +20603,8 @@
       <c r="B188" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C188" s="7" t="s">
-        <v>764</v>
+      <c r="C188" s="23" t="s">
+        <v>985</v>
       </c>
       <c r="D188" s="6"/>
     </row>
@@ -20074,8 +20615,8 @@
       <c r="B189" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="C189" s="7" t="s">
-        <v>764</v>
+      <c r="C189" s="23" t="s">
+        <v>985</v>
       </c>
       <c r="D189" s="6"/>
     </row>
@@ -20086,8 +20627,8 @@
       <c r="B190" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C190" s="7" t="s">
-        <v>765</v>
+      <c r="C190" s="23" t="s">
+        <v>744</v>
       </c>
       <c r="D190" s="6"/>
     </row>
@@ -20098,8 +20639,8 @@
       <c r="B191" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C191" s="7" t="s">
-        <v>765</v>
+      <c r="C191" s="23" t="s">
+        <v>744</v>
       </c>
       <c r="D191" s="6"/>
     </row>
@@ -20110,8 +20651,8 @@
       <c r="B192" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C192" s="7" t="s">
-        <v>765</v>
+      <c r="C192" s="23" t="s">
+        <v>744</v>
       </c>
       <c r="D192" s="6"/>
     </row>
@@ -20122,8 +20663,8 @@
       <c r="B193" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C193" s="7" t="s">
-        <v>765</v>
+      <c r="C193" s="23" t="s">
+        <v>744</v>
       </c>
       <c r="D193" s="6"/>
     </row>
@@ -20134,8 +20675,8 @@
       <c r="B194" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C194" s="7" t="s">
-        <v>765</v>
+      <c r="C194" s="23" t="s">
+        <v>744</v>
       </c>
       <c r="D194" s="6"/>
     </row>
@@ -20146,8 +20687,8 @@
       <c r="B195" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="C195" s="7" t="s">
-        <v>765</v>
+      <c r="C195" s="23" t="s">
+        <v>744</v>
       </c>
       <c r="D195" s="6"/>
     </row>
@@ -20158,8 +20699,8 @@
       <c r="B196" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="C196" s="7" t="s">
-        <v>766</v>
+      <c r="C196" s="23" t="s">
+        <v>745</v>
       </c>
       <c r="D196" s="6"/>
     </row>
@@ -20170,8 +20711,8 @@
       <c r="B197" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C197" s="7" t="s">
-        <v>767</v>
+      <c r="C197" s="23" t="s">
+        <v>986</v>
       </c>
       <c r="D197" s="6"/>
     </row>
@@ -20182,8 +20723,8 @@
       <c r="B198" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C198" s="7" t="s">
-        <v>768</v>
+      <c r="C198" s="23" t="s">
+        <v>987</v>
       </c>
       <c r="D198" s="6"/>
     </row>
@@ -20194,8 +20735,8 @@
       <c r="B199" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C199" s="7" t="s">
-        <v>768</v>
+      <c r="C199" s="23" t="s">
+        <v>987</v>
       </c>
       <c r="D199" s="6"/>
     </row>
@@ -20206,8 +20747,8 @@
       <c r="B200" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="C200" s="7" t="s">
-        <v>768</v>
+      <c r="C200" s="23" t="s">
+        <v>987</v>
       </c>
       <c r="D200" s="6"/>
     </row>
@@ -20218,8 +20759,8 @@
       <c r="B201" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="C201" s="7" t="s">
-        <v>768</v>
+      <c r="C201" s="23" t="s">
+        <v>987</v>
       </c>
       <c r="D201" s="6"/>
     </row>
@@ -20230,8 +20771,8 @@
       <c r="B202" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C202" s="7" t="s">
-        <v>768</v>
+      <c r="C202" s="23" t="s">
+        <v>987</v>
       </c>
       <c r="D202" s="6"/>
     </row>
@@ -20242,8 +20783,8 @@
       <c r="B203" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C203" s="7" t="s">
-        <v>768</v>
+      <c r="C203" s="23" t="s">
+        <v>987</v>
       </c>
       <c r="D203" s="6"/>
     </row>
@@ -20254,8 +20795,8 @@
       <c r="B204" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="C204" s="7" t="s">
-        <v>768</v>
+      <c r="C204" s="23" t="s">
+        <v>987</v>
       </c>
       <c r="D204" s="6"/>
     </row>
@@ -20266,8 +20807,8 @@
       <c r="B205" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="C205" s="7" t="s">
-        <v>768</v>
+      <c r="C205" s="23" t="s">
+        <v>987</v>
       </c>
       <c r="D205" s="6"/>
     </row>
@@ -20278,8 +20819,8 @@
       <c r="B206" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="C206" s="7" t="s">
-        <v>768</v>
+      <c r="C206" s="23" t="s">
+        <v>987</v>
       </c>
       <c r="D206" s="6"/>
     </row>
@@ -20290,8 +20831,8 @@
       <c r="B207" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="C207" s="7" t="s">
-        <v>768</v>
+      <c r="C207" s="23" t="s">
+        <v>987</v>
       </c>
       <c r="D207" s="6"/>
     </row>
@@ -20302,8 +20843,8 @@
       <c r="B208" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="C208" s="7" t="s">
-        <v>769</v>
+      <c r="C208" s="23" t="s">
+        <v>988</v>
       </c>
       <c r="D208" s="6"/>
     </row>
@@ -20314,8 +20855,8 @@
       <c r="B209" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C209" s="7" t="s">
-        <v>769</v>
+      <c r="C209" s="23" t="s">
+        <v>988</v>
       </c>
       <c r="D209" s="6"/>
     </row>
@@ -20326,8 +20867,8 @@
       <c r="B210" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C210" s="7" t="s">
-        <v>769</v>
+      <c r="C210" s="23" t="s">
+        <v>988</v>
       </c>
       <c r="D210" s="6"/>
     </row>
@@ -20338,8 +20879,8 @@
       <c r="B211" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C211" s="7" t="s">
-        <v>769</v>
+      <c r="C211" s="23" t="s">
+        <v>988</v>
       </c>
       <c r="D211" s="6"/>
     </row>
@@ -20350,8 +20891,8 @@
       <c r="B212" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C212" s="7" t="s">
-        <v>769</v>
+      <c r="C212" s="23" t="s">
+        <v>988</v>
       </c>
       <c r="D212" s="6"/>
     </row>
@@ -20362,8 +20903,8 @@
       <c r="B213" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="C213" s="7" t="s">
-        <v>769</v>
+      <c r="C213" s="23" t="s">
+        <v>988</v>
       </c>
       <c r="D213" s="6"/>
     </row>
@@ -20374,8 +20915,8 @@
       <c r="B214" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="C214" s="7" t="s">
-        <v>769</v>
+      <c r="C214" s="23" t="s">
+        <v>988</v>
       </c>
       <c r="D214" s="6"/>
     </row>
@@ -20386,8 +20927,8 @@
       <c r="B215" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="C215" s="7" t="s">
-        <v>769</v>
+      <c r="C215" s="23" t="s">
+        <v>988</v>
       </c>
       <c r="D215" s="6"/>
     </row>
@@ -20398,8 +20939,8 @@
       <c r="B216" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="C216" s="7" t="s">
-        <v>769</v>
+      <c r="C216" s="23" t="s">
+        <v>988</v>
       </c>
       <c r="D216" s="6"/>
     </row>
@@ -20410,8 +20951,8 @@
       <c r="B217" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="C217" s="7" t="s">
-        <v>769</v>
+      <c r="C217" s="23" t="s">
+        <v>988</v>
       </c>
       <c r="D217" s="6"/>
     </row>
@@ -20422,8 +20963,8 @@
       <c r="B218" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C218" s="7" t="s">
-        <v>769</v>
+      <c r="C218" s="23" t="s">
+        <v>988</v>
       </c>
       <c r="D218" s="6"/>
     </row>
@@ -20434,8 +20975,8 @@
       <c r="B219" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="C219" s="7" t="s">
-        <v>769</v>
+      <c r="C219" s="23" t="s">
+        <v>988</v>
       </c>
       <c r="D219" s="6"/>
     </row>
@@ -20446,8 +20987,8 @@
       <c r="B220" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="C220" s="7" t="s">
-        <v>769</v>
+      <c r="C220" s="23" t="s">
+        <v>988</v>
       </c>
       <c r="D220" s="6"/>
     </row>
@@ -20458,8 +20999,8 @@
       <c r="B221" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C221" s="7" t="s">
-        <v>770</v>
+      <c r="C221" s="23" t="s">
+        <v>989</v>
       </c>
       <c r="D221" s="6"/>
     </row>
@@ -20470,8 +21011,8 @@
       <c r="B222" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="C222" s="7" t="s">
-        <v>770</v>
+      <c r="C222" s="23" t="s">
+        <v>989</v>
       </c>
       <c r="D222" s="6"/>
     </row>
@@ -20482,8 +21023,8 @@
       <c r="B223" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="C223" s="7" t="s">
-        <v>770</v>
+      <c r="C223" s="23" t="s">
+        <v>989</v>
       </c>
       <c r="D223" s="6"/>
     </row>
@@ -20494,8 +21035,8 @@
       <c r="B224" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C224" s="7" t="s">
-        <v>770</v>
+      <c r="C224" s="23" t="s">
+        <v>989</v>
       </c>
       <c r="D224" s="6"/>
     </row>
@@ -20506,8 +21047,8 @@
       <c r="B225" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="C225" s="7" t="s">
-        <v>770</v>
+      <c r="C225" s="23" t="s">
+        <v>989</v>
       </c>
       <c r="D225" s="6"/>
     </row>
@@ -20518,8 +21059,8 @@
       <c r="B226" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="C226" s="7" t="s">
-        <v>770</v>
+      <c r="C226" s="23" t="s">
+        <v>989</v>
       </c>
       <c r="D226" s="6"/>
     </row>
@@ -20530,8 +21071,8 @@
       <c r="B227" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C227" s="7" t="s">
-        <v>770</v>
+      <c r="C227" s="23" t="s">
+        <v>989</v>
       </c>
       <c r="D227" s="6"/>
     </row>
@@ -20542,8 +21083,8 @@
       <c r="B228" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="C228" s="7" t="s">
-        <v>770</v>
+      <c r="C228" s="23" t="s">
+        <v>989</v>
       </c>
       <c r="D228" s="6"/>
     </row>
@@ -20554,8 +21095,8 @@
       <c r="B229" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="C229" s="7" t="s">
-        <v>770</v>
+      <c r="C229" s="23" t="s">
+        <v>989</v>
       </c>
       <c r="D229" s="6"/>
     </row>
@@ -20566,8 +21107,8 @@
       <c r="B230" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C230" s="7" t="s">
-        <v>771</v>
+      <c r="C230" s="23" t="s">
+        <v>746</v>
       </c>
       <c r="D230" s="6"/>
     </row>
@@ -20578,8 +21119,8 @@
       <c r="B231" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C231" s="7" t="s">
-        <v>772</v>
+      <c r="C231" s="23" t="s">
+        <v>990</v>
       </c>
       <c r="D231" s="6"/>
     </row>
@@ -20590,8 +21131,8 @@
       <c r="B232" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C232" s="7" t="s">
-        <v>772</v>
+      <c r="C232" s="23" t="s">
+        <v>990</v>
       </c>
       <c r="D232" s="6"/>
     </row>
@@ -20602,8 +21143,8 @@
       <c r="B233" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C233" s="7" t="s">
-        <v>772</v>
+      <c r="C233" s="23" t="s">
+        <v>990</v>
       </c>
       <c r="D233" s="6"/>
     </row>
@@ -20614,8 +21155,8 @@
       <c r="B234" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C234" s="7" t="s">
-        <v>772</v>
+      <c r="C234" s="23" t="s">
+        <v>990</v>
       </c>
       <c r="D234" s="6"/>
     </row>
@@ -20626,8 +21167,8 @@
       <c r="B235" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C235" s="7" t="s">
-        <v>772</v>
+      <c r="C235" s="23" t="s">
+        <v>990</v>
       </c>
       <c r="D235" s="6"/>
     </row>
@@ -20638,8 +21179,8 @@
       <c r="B236" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C236" s="7" t="s">
-        <v>772</v>
+      <c r="C236" s="23" t="s">
+        <v>990</v>
       </c>
       <c r="D236" s="6"/>
     </row>
@@ -20650,8 +21191,8 @@
       <c r="B237" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C237" s="7" t="s">
-        <v>772</v>
+      <c r="C237" s="23" t="s">
+        <v>990</v>
       </c>
       <c r="D237" s="6"/>
     </row>
@@ -20662,8 +21203,8 @@
       <c r="B238" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C238" s="7" t="s">
-        <v>773</v>
+      <c r="C238" s="23" t="s">
+        <v>991</v>
       </c>
       <c r="D238" s="6"/>
     </row>
@@ -20674,8 +21215,8 @@
       <c r="B239" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="C239" s="7" t="s">
-        <v>773</v>
+      <c r="C239" s="23" t="s">
+        <v>991</v>
       </c>
       <c r="D239" s="6"/>
     </row>
@@ -20686,8 +21227,8 @@
       <c r="B240" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C240" s="7" t="s">
-        <v>773</v>
+      <c r="C240" s="23" t="s">
+        <v>991</v>
       </c>
       <c r="D240" s="6"/>
     </row>
@@ -20698,8 +21239,8 @@
       <c r="B241" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C241" s="7" t="s">
-        <v>773</v>
+      <c r="C241" s="23" t="s">
+        <v>991</v>
       </c>
       <c r="D241" s="6"/>
     </row>
@@ -20710,8 +21251,8 @@
       <c r="B242" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C242" s="7" t="s">
-        <v>773</v>
+      <c r="C242" s="23" t="s">
+        <v>991</v>
       </c>
       <c r="D242" s="6"/>
     </row>
@@ -20722,8 +21263,8 @@
       <c r="B243" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C243" s="7" t="s">
-        <v>773</v>
+      <c r="C243" s="23" t="s">
+        <v>991</v>
       </c>
       <c r="D243" s="6"/>
     </row>
@@ -20734,8 +21275,8 @@
       <c r="B244" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="C244" s="7" t="s">
-        <v>773</v>
+      <c r="C244" s="23" t="s">
+        <v>991</v>
       </c>
       <c r="D244" s="6"/>
     </row>
@@ -20746,8 +21287,8 @@
       <c r="B245" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="C245" s="7" t="s">
-        <v>774</v>
+      <c r="C245" s="23" t="s">
+        <v>992</v>
       </c>
       <c r="D245" s="6"/>
     </row>
@@ -20758,8 +21299,8 @@
       <c r="B246" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="C246" s="7" t="s">
-        <v>775</v>
+      <c r="C246" s="23" t="s">
+        <v>993</v>
       </c>
       <c r="D246" s="6"/>
     </row>
@@ -20770,8 +21311,8 @@
       <c r="B247" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="C247" s="7" t="s">
-        <v>775</v>
+      <c r="C247" s="23" t="s">
+        <v>993</v>
       </c>
       <c r="D247" s="6"/>
     </row>
@@ -20782,8 +21323,8 @@
       <c r="B248" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="C248" s="7" t="s">
-        <v>775</v>
+      <c r="C248" s="23" t="s">
+        <v>993</v>
       </c>
       <c r="D248" s="6"/>
     </row>
@@ -20794,8 +21335,8 @@
       <c r="B249" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="C249" s="7" t="s">
-        <v>776</v>
+      <c r="C249" s="23" t="s">
+        <v>994</v>
       </c>
       <c r="D249" s="6"/>
     </row>
@@ -20806,8 +21347,8 @@
       <c r="B250" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="C250" s="7" t="s">
-        <v>776</v>
+      <c r="C250" s="23" t="s">
+        <v>994</v>
       </c>
       <c r="D250" s="6"/>
     </row>
@@ -20818,8 +21359,8 @@
       <c r="B251" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="C251" s="7" t="s">
-        <v>777</v>
+      <c r="C251" s="23" t="s">
+        <v>747</v>
       </c>
       <c r="D251" s="6"/>
     </row>
@@ -20830,8 +21371,8 @@
       <c r="B252" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C252" s="7" t="s">
-        <v>777</v>
+      <c r="C252" s="23" t="s">
+        <v>747</v>
       </c>
       <c r="D252" s="6"/>
     </row>
@@ -20842,8 +21383,8 @@
       <c r="B253" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C253" s="7" t="s">
-        <v>777</v>
+      <c r="C253" s="23" t="s">
+        <v>747</v>
       </c>
       <c r="D253" s="6"/>
     </row>
@@ -20854,8 +21395,8 @@
       <c r="B254" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="C254" s="7" t="s">
-        <v>777</v>
+      <c r="C254" s="23" t="s">
+        <v>747</v>
       </c>
       <c r="D254" s="6"/>
     </row>
@@ -20866,8 +21407,8 @@
       <c r="B255" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C255" s="7" t="s">
-        <v>777</v>
+      <c r="C255" s="23" t="s">
+        <v>747</v>
       </c>
       <c r="D255" s="6"/>
     </row>
@@ -20878,8 +21419,8 @@
       <c r="B256" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C256" s="7" t="s">
-        <v>777</v>
+      <c r="C256" s="23" t="s">
+        <v>747</v>
       </c>
       <c r="D256" s="6"/>
     </row>
@@ -20890,8 +21431,8 @@
       <c r="B257" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="C257" s="7" t="s">
-        <v>777</v>
+      <c r="C257" s="23" t="s">
+        <v>747</v>
       </c>
       <c r="D257" s="6"/>
     </row>
@@ -20902,8 +21443,8 @@
       <c r="B258" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C258" s="7" t="s">
-        <v>777</v>
+      <c r="C258" s="23" t="s">
+        <v>747</v>
       </c>
       <c r="D258" s="6"/>
     </row>
@@ -20914,8 +21455,8 @@
       <c r="B259" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C259" s="7" t="s">
-        <v>777</v>
+      <c r="C259" s="23" t="s">
+        <v>747</v>
       </c>
       <c r="D259" s="6"/>
     </row>
@@ -20926,8 +21467,8 @@
       <c r="B260" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C260" s="7" t="s">
-        <v>777</v>
+      <c r="C260" s="23" t="s">
+        <v>747</v>
       </c>
       <c r="D260" s="6"/>
     </row>
@@ -20938,8 +21479,8 @@
       <c r="B261" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C261" s="7" t="s">
-        <v>777</v>
+      <c r="C261" s="23" t="s">
+        <v>747</v>
       </c>
       <c r="D261" s="6"/>
     </row>
@@ -20950,8 +21491,8 @@
       <c r="B262" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="C262" s="7" t="s">
-        <v>777</v>
+      <c r="C262" s="23" t="s">
+        <v>747</v>
       </c>
       <c r="D262" s="6"/>
     </row>
@@ -20962,8 +21503,8 @@
       <c r="B263" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="C263" s="7" t="s">
-        <v>777</v>
+      <c r="C263" s="23" t="s">
+        <v>747</v>
       </c>
       <c r="D263" s="6"/>
     </row>
@@ -20974,8 +21515,8 @@
       <c r="B264" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="C264" s="7" t="s">
-        <v>777</v>
+      <c r="C264" s="23" t="s">
+        <v>747</v>
       </c>
       <c r="D264" s="6"/>
     </row>
@@ -20986,8 +21527,8 @@
       <c r="B265" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C265" s="7" t="s">
-        <v>778</v>
+      <c r="C265" s="23" t="s">
+        <v>748</v>
       </c>
       <c r="D265" s="6"/>
     </row>
@@ -20998,8 +21539,8 @@
       <c r="B266" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C266" s="7" t="s">
-        <v>779</v>
+      <c r="C266" s="23" t="s">
+        <v>995</v>
       </c>
       <c r="D266" s="6"/>
     </row>
@@ -21010,8 +21551,8 @@
       <c r="B267" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C267" s="7" t="s">
-        <v>779</v>
+      <c r="C267" s="23" t="s">
+        <v>995</v>
       </c>
       <c r="D267" s="6"/>
     </row>
@@ -21022,8 +21563,8 @@
       <c r="B268" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C268" s="7" t="s">
-        <v>779</v>
+      <c r="C268" s="23" t="s">
+        <v>995</v>
       </c>
       <c r="D268" s="6"/>
     </row>
@@ -21034,8 +21575,8 @@
       <c r="B269" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C269" s="7" t="s">
-        <v>779</v>
+      <c r="C269" s="23" t="s">
+        <v>995</v>
       </c>
       <c r="D269" s="6"/>
     </row>
@@ -21046,8 +21587,8 @@
       <c r="B270" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C270" s="7" t="s">
-        <v>780</v>
+      <c r="C270" s="23" t="s">
+        <v>996</v>
       </c>
       <c r="D270" s="6"/>
     </row>
@@ -21058,8 +21599,8 @@
       <c r="B271" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C271" s="7" t="s">
-        <v>781</v>
+      <c r="C271" s="23" t="s">
+        <v>997</v>
       </c>
       <c r="D271" s="6"/>
     </row>
@@ -21070,8 +21611,8 @@
       <c r="B272" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C272" s="7" t="s">
-        <v>781</v>
+      <c r="C272" s="23" t="s">
+        <v>997</v>
       </c>
       <c r="D272" s="6"/>
     </row>
@@ -21082,8 +21623,8 @@
       <c r="B273" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C273" s="7" t="s">
-        <v>781</v>
+      <c r="C273" s="23" t="s">
+        <v>997</v>
       </c>
       <c r="D273" s="6"/>
     </row>
@@ -21094,8 +21635,8 @@
       <c r="B274" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C274" s="7" t="s">
-        <v>781</v>
+      <c r="C274" s="23" t="s">
+        <v>997</v>
       </c>
       <c r="D274" s="6"/>
     </row>
@@ -21106,8 +21647,8 @@
       <c r="B275" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C275" s="7" t="s">
-        <v>781</v>
+      <c r="C275" s="23" t="s">
+        <v>997</v>
       </c>
       <c r="D275" s="6"/>
     </row>
@@ -21118,8 +21659,8 @@
       <c r="B276" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C276" s="7" t="s">
-        <v>781</v>
+      <c r="C276" s="23" t="s">
+        <v>997</v>
       </c>
       <c r="D276" s="6"/>
     </row>
@@ -21130,8 +21671,8 @@
       <c r="B277" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C277" s="7" t="s">
-        <v>781</v>
+      <c r="C277" s="23" t="s">
+        <v>997</v>
       </c>
       <c r="D277" s="6"/>
     </row>
@@ -21142,8 +21683,8 @@
       <c r="B278" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="C278" s="7" t="s">
-        <v>781</v>
+      <c r="C278" s="23" t="s">
+        <v>997</v>
       </c>
       <c r="D278" s="6"/>
     </row>
@@ -21154,8 +21695,8 @@
       <c r="B279" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C279" s="7" t="s">
-        <v>782</v>
+      <c r="C279" s="23" t="s">
+        <v>998</v>
       </c>
       <c r="D279" s="6"/>
     </row>
@@ -21166,8 +21707,8 @@
       <c r="B280" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C280" s="7" t="s">
-        <v>782</v>
+      <c r="C280" s="23" t="s">
+        <v>998</v>
       </c>
       <c r="D280" s="6"/>
     </row>
@@ -21178,8 +21719,8 @@
       <c r="B281" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C281" s="7" t="s">
-        <v>782</v>
+      <c r="C281" s="23" t="s">
+        <v>998</v>
       </c>
       <c r="D281" s="6"/>
     </row>
@@ -21190,8 +21731,8 @@
       <c r="B282" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C282" s="7" t="s">
-        <v>782</v>
+      <c r="C282" s="23" t="s">
+        <v>998</v>
       </c>
       <c r="D282" s="6"/>
     </row>
@@ -21202,8 +21743,8 @@
       <c r="B283" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C283" s="7" t="s">
-        <v>782</v>
+      <c r="C283" s="23" t="s">
+        <v>998</v>
       </c>
       <c r="D283" s="6"/>
     </row>
@@ -21214,8 +21755,8 @@
       <c r="B284" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C284" s="7" t="s">
-        <v>782</v>
+      <c r="C284" s="23" t="s">
+        <v>998</v>
       </c>
       <c r="D284" s="6"/>
     </row>
@@ -21226,8 +21767,8 @@
       <c r="B285" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C285" s="7" t="s">
-        <v>782</v>
+      <c r="C285" s="23" t="s">
+        <v>998</v>
       </c>
       <c r="D285" s="6"/>
     </row>
@@ -21238,8 +21779,8 @@
       <c r="B286" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C286" s="7" t="s">
-        <v>782</v>
+      <c r="C286" s="23" t="s">
+        <v>998</v>
       </c>
       <c r="D286" s="6"/>
     </row>
@@ -21250,8 +21791,8 @@
       <c r="B287" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C287" s="7" t="s">
-        <v>782</v>
+      <c r="C287" s="23" t="s">
+        <v>998</v>
       </c>
       <c r="D287" s="6"/>
     </row>
@@ -21262,8 +21803,8 @@
       <c r="B288" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C288" s="7" t="s">
-        <v>783</v>
+      <c r="C288" s="23" t="s">
+        <v>999</v>
       </c>
       <c r="D288" s="6"/>
     </row>
@@ -21274,8 +21815,8 @@
       <c r="B289" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C289" s="7" t="s">
-        <v>783</v>
+      <c r="C289" s="23" t="s">
+        <v>999</v>
       </c>
       <c r="D289" s="6"/>
     </row>
@@ -21286,8 +21827,8 @@
       <c r="B290" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C290" s="7" t="s">
-        <v>783</v>
+      <c r="C290" s="23" t="s">
+        <v>999</v>
       </c>
       <c r="D290" s="6"/>
     </row>
@@ -21298,8 +21839,8 @@
       <c r="B291" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C291" s="7" t="s">
-        <v>783</v>
+      <c r="C291" s="23" t="s">
+        <v>999</v>
       </c>
       <c r="D291" s="6"/>
     </row>
@@ -21310,8 +21851,8 @@
       <c r="B292" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C292" s="7" t="s">
-        <v>783</v>
+      <c r="C292" s="23" t="s">
+        <v>999</v>
       </c>
       <c r="D292" s="6"/>
     </row>
@@ -21322,8 +21863,8 @@
       <c r="B293" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="C293" s="7" t="s">
-        <v>783</v>
+      <c r="C293" s="23" t="s">
+        <v>999</v>
       </c>
       <c r="D293" s="6"/>
     </row>
@@ -21334,8 +21875,8 @@
       <c r="B294" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C294" s="7" t="s">
-        <v>783</v>
+      <c r="C294" s="23" t="s">
+        <v>999</v>
       </c>
       <c r="D294" s="6"/>
     </row>
@@ -21346,8 +21887,8 @@
       <c r="B295" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C295" s="7" t="s">
-        <v>783</v>
+      <c r="C295" s="23" t="s">
+        <v>999</v>
       </c>
       <c r="D295" s="6"/>
     </row>
@@ -21358,8 +21899,8 @@
       <c r="B296" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C296" s="7" t="s">
-        <v>783</v>
+      <c r="C296" s="23" t="s">
+        <v>999</v>
       </c>
       <c r="D296" s="6"/>
     </row>
@@ -21370,8 +21911,8 @@
       <c r="B297" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C297" s="7" t="s">
-        <v>783</v>
+      <c r="C297" s="23" t="s">
+        <v>999</v>
       </c>
       <c r="D297" s="6"/>
     </row>
@@ -21382,8 +21923,8 @@
       <c r="B298" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C298" s="7" t="s">
-        <v>784</v>
+      <c r="C298" s="23" t="s">
+        <v>749</v>
       </c>
       <c r="D298" s="6"/>
     </row>
@@ -21394,8 +21935,8 @@
       <c r="B299" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C299" s="7" t="s">
-        <v>784</v>
+      <c r="C299" s="23" t="s">
+        <v>749</v>
       </c>
       <c r="D299" s="6"/>
     </row>
@@ -21406,8 +21947,8 @@
       <c r="B300" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C300" s="7" t="s">
-        <v>784</v>
+      <c r="C300" s="23" t="s">
+        <v>749</v>
       </c>
       <c r="D300" s="6"/>
     </row>
@@ -21418,8 +21959,8 @@
       <c r="B301" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C301" s="7" t="s">
-        <v>784</v>
+      <c r="C301" s="23" t="s">
+        <v>749</v>
       </c>
       <c r="D301" s="6"/>
     </row>
@@ -21430,8 +21971,8 @@
       <c r="B302" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C302" s="7" t="s">
-        <v>785</v>
+      <c r="C302" s="23" t="s">
+        <v>1000</v>
       </c>
       <c r="D302" s="6"/>
     </row>
@@ -21442,8 +21983,8 @@
       <c r="B303" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C303" s="7" t="s">
-        <v>785</v>
+      <c r="C303" s="23" t="s">
+        <v>1000</v>
       </c>
       <c r="D303" s="6"/>
     </row>
@@ -21454,8 +21995,8 @@
       <c r="B304" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C304" s="7" t="s">
-        <v>785</v>
+      <c r="C304" s="23" t="s">
+        <v>1000</v>
       </c>
       <c r="D304" s="6"/>
     </row>
@@ -21466,8 +22007,8 @@
       <c r="B305" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C305" s="7" t="s">
-        <v>785</v>
+      <c r="C305" s="23" t="s">
+        <v>1000</v>
       </c>
       <c r="D305" s="6"/>
     </row>
@@ -21478,8 +22019,8 @@
       <c r="B306" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C306" s="7" t="s">
-        <v>785</v>
+      <c r="C306" s="23" t="s">
+        <v>1000</v>
       </c>
       <c r="D306" s="6"/>
     </row>
@@ -21490,8 +22031,8 @@
       <c r="B307" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C307" s="7" t="s">
-        <v>785</v>
+      <c r="C307" s="23" t="s">
+        <v>1000</v>
       </c>
       <c r="D307" s="6"/>
     </row>
@@ -21502,8 +22043,8 @@
       <c r="B308" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C308" s="7" t="s">
-        <v>785</v>
+      <c r="C308" s="23" t="s">
+        <v>1000</v>
       </c>
       <c r="D308" s="6"/>
     </row>
@@ -21514,8 +22055,8 @@
       <c r="B309" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C309" s="7" t="s">
-        <v>785</v>
+      <c r="C309" s="23" t="s">
+        <v>1000</v>
       </c>
       <c r="D309" s="6"/>
     </row>
@@ -21526,8 +22067,8 @@
       <c r="B310" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C310" s="7" t="s">
-        <v>785</v>
+      <c r="C310" s="23" t="s">
+        <v>1000</v>
       </c>
       <c r="D310" s="6"/>
     </row>
@@ -21538,8 +22079,8 @@
       <c r="B311" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C311" s="7" t="s">
-        <v>786</v>
+      <c r="C311" s="23" t="s">
+        <v>1001</v>
       </c>
       <c r="D311" s="6"/>
     </row>
@@ -21550,8 +22091,8 @@
       <c r="B312" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C312" s="7" t="s">
-        <v>786</v>
+      <c r="C312" s="23" t="s">
+        <v>1001</v>
       </c>
       <c r="D312" s="6"/>
     </row>
@@ -21562,8 +22103,8 @@
       <c r="B313" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C313" s="7" t="s">
-        <v>787</v>
+      <c r="C313" s="23" t="s">
+        <v>1002</v>
       </c>
       <c r="D313" s="6"/>
     </row>
@@ -21574,8 +22115,8 @@
       <c r="B314" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C314" s="7" t="s">
-        <v>787</v>
+      <c r="C314" s="23" t="s">
+        <v>1002</v>
       </c>
       <c r="D314" s="6"/>
     </row>
@@ -21586,8 +22127,8 @@
       <c r="B315" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C315" s="7" t="s">
-        <v>787</v>
+      <c r="C315" s="23" t="s">
+        <v>1002</v>
       </c>
       <c r="D315" s="6"/>
     </row>
@@ -21598,8 +22139,8 @@
       <c r="B316" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C316" s="7" t="s">
-        <v>787</v>
+      <c r="C316" s="23" t="s">
+        <v>1002</v>
       </c>
       <c r="D316" s="6"/>
     </row>
@@ -21610,8 +22151,8 @@
       <c r="B317" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C317" s="7" t="s">
-        <v>787</v>
+      <c r="C317" s="23" t="s">
+        <v>1002</v>
       </c>
       <c r="D317" s="6"/>
     </row>
@@ -21622,8 +22163,8 @@
       <c r="B318" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C318" s="7" t="s">
-        <v>787</v>
+      <c r="C318" s="23" t="s">
+        <v>1002</v>
       </c>
       <c r="D318" s="6"/>
     </row>
@@ -21634,8 +22175,8 @@
       <c r="B319" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C319" s="7" t="s">
-        <v>788</v>
+      <c r="C319" s="23" t="s">
+        <v>1003</v>
       </c>
       <c r="D319" s="6"/>
     </row>
@@ -21646,8 +22187,8 @@
       <c r="B320" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C320" s="7" t="s">
-        <v>788</v>
+      <c r="C320" s="23" t="s">
+        <v>1003</v>
       </c>
       <c r="D320" s="6"/>
     </row>
@@ -21658,8 +22199,8 @@
       <c r="B321" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C321" s="7" t="s">
-        <v>788</v>
+      <c r="C321" s="23" t="s">
+        <v>1003</v>
       </c>
       <c r="D321" s="6"/>
     </row>
@@ -21670,8 +22211,8 @@
       <c r="B322" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C322" s="7" t="s">
-        <v>788</v>
+      <c r="C322" s="23" t="s">
+        <v>1003</v>
       </c>
       <c r="D322" s="6"/>
     </row>
@@ -21682,8 +22223,8 @@
       <c r="B323" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="C323" s="7" t="s">
-        <v>788</v>
+      <c r="C323" s="23" t="s">
+        <v>1003</v>
       </c>
       <c r="D323" s="6"/>
     </row>
@@ -21694,8 +22235,8 @@
       <c r="B324" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C324" s="7" t="s">
-        <v>788</v>
+      <c r="C324" s="23" t="s">
+        <v>1003</v>
       </c>
       <c r="D324" s="6"/>
     </row>
@@ -21706,8 +22247,8 @@
       <c r="B325" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C325" s="7" t="s">
-        <v>788</v>
+      <c r="C325" s="23" t="s">
+        <v>1003</v>
       </c>
       <c r="D325" s="6"/>
     </row>
@@ -21718,8 +22259,8 @@
       <c r="B326" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C326" s="7" t="s">
-        <v>788</v>
+      <c r="C326" s="23" t="s">
+        <v>1003</v>
       </c>
       <c r="D326" s="6"/>
     </row>
@@ -21730,8 +22271,8 @@
       <c r="B327" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C327" s="7" t="s">
-        <v>788</v>
+      <c r="C327" s="23" t="s">
+        <v>1003</v>
       </c>
       <c r="D327" s="6"/>
     </row>
@@ -21742,8 +22283,8 @@
       <c r="B328" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="C328" s="7" t="s">
-        <v>788</v>
+      <c r="C328" s="23" t="s">
+        <v>1003</v>
       </c>
       <c r="D328" s="6"/>
     </row>
@@ -21754,8 +22295,8 @@
       <c r="B329" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C329" s="7" t="s">
-        <v>788</v>
+      <c r="C329" s="23" t="s">
+        <v>1003</v>
       </c>
       <c r="D329" s="6"/>
     </row>
@@ -21766,8 +22307,8 @@
       <c r="B330" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C330" s="7" t="s">
-        <v>788</v>
+      <c r="C330" s="23" t="s">
+        <v>1003</v>
       </c>
       <c r="D330" s="6"/>
     </row>
@@ -21778,8 +22319,8 @@
       <c r="B331" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C331" s="7" t="s">
-        <v>788</v>
+      <c r="C331" s="23" t="s">
+        <v>1003</v>
       </c>
       <c r="D331" s="6"/>
     </row>
@@ -21790,8 +22331,8 @@
       <c r="B332" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C332" s="7" t="s">
-        <v>789</v>
+      <c r="C332" s="23" t="s">
+        <v>1004</v>
       </c>
       <c r="D332" s="6"/>
     </row>
@@ -21802,8 +22343,8 @@
       <c r="B333" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C333" s="7" t="s">
-        <v>789</v>
+      <c r="C333" s="23" t="s">
+        <v>1004</v>
       </c>
       <c r="D333" s="6"/>
     </row>
@@ -21814,8 +22355,8 @@
       <c r="B334" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C334" s="7" t="s">
-        <v>789</v>
+      <c r="C334" s="23" t="s">
+        <v>1004</v>
       </c>
       <c r="D334" s="6"/>
     </row>
@@ -21826,8 +22367,8 @@
       <c r="B335" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C335" s="7" t="s">
-        <v>789</v>
+      <c r="C335" s="23" t="s">
+        <v>1004</v>
       </c>
       <c r="D335" s="6"/>
     </row>
@@ -21838,8 +22379,8 @@
       <c r="B336" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C336" s="7" t="s">
-        <v>790</v>
+      <c r="C336" s="23" t="s">
+        <v>1005</v>
       </c>
       <c r="D336" s="6"/>
     </row>
@@ -21850,8 +22391,8 @@
       <c r="B337" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C337" s="7" t="s">
-        <v>790</v>
+      <c r="C337" s="23" t="s">
+        <v>1005</v>
       </c>
       <c r="D337" s="6"/>
     </row>
@@ -21862,8 +22403,8 @@
       <c r="B338" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C338" s="7" t="s">
-        <v>790</v>
+      <c r="C338" s="23" t="s">
+        <v>1005</v>
       </c>
       <c r="D338" s="6"/>
     </row>
@@ -21874,8 +22415,8 @@
       <c r="B339" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C339" s="7" t="s">
-        <v>790</v>
+      <c r="C339" s="23" t="s">
+        <v>1005</v>
       </c>
       <c r="D339" s="6"/>
     </row>
@@ -21886,8 +22427,8 @@
       <c r="B340" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C340" s="7" t="s">
-        <v>790</v>
+      <c r="C340" s="23" t="s">
+        <v>1005</v>
       </c>
       <c r="D340" s="6"/>
     </row>
@@ -21898,8 +22439,8 @@
       <c r="B341" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C341" s="7" t="s">
-        <v>790</v>
+      <c r="C341" s="23" t="s">
+        <v>1005</v>
       </c>
       <c r="D341" s="6"/>
     </row>
@@ -21910,8 +22451,8 @@
       <c r="B342" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C342" s="7" t="s">
-        <v>790</v>
+      <c r="C342" s="23" t="s">
+        <v>1005</v>
       </c>
       <c r="D342" s="6"/>
     </row>
@@ -21922,8 +22463,8 @@
       <c r="B343" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="C343" s="7" t="s">
-        <v>790</v>
+      <c r="C343" s="23" t="s">
+        <v>1005</v>
       </c>
       <c r="D343" s="6"/>
     </row>
@@ -21934,8 +22475,8 @@
       <c r="B344" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C344" s="7" t="s">
-        <v>790</v>
+      <c r="C344" s="23" t="s">
+        <v>1005</v>
       </c>
       <c r="D344" s="6"/>
     </row>
@@ -21946,8 +22487,8 @@
       <c r="B345" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C345" s="7" t="s">
-        <v>790</v>
+      <c r="C345" s="23" t="s">
+        <v>1005</v>
       </c>
       <c r="D345" s="6"/>
     </row>
@@ -21958,8 +22499,8 @@
       <c r="B346" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="C346" s="7" t="s">
-        <v>790</v>
+      <c r="C346" s="23" t="s">
+        <v>1005</v>
       </c>
       <c r="D346" s="6"/>
     </row>
@@ -21970,8 +22511,8 @@
       <c r="B347" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C347" s="7" t="s">
-        <v>790</v>
+      <c r="C347" s="23" t="s">
+        <v>1005</v>
       </c>
       <c r="D347" s="6"/>
     </row>
@@ -21982,8 +22523,8 @@
       <c r="B348" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="C348" s="7" t="s">
-        <v>790</v>
+      <c r="C348" s="23" t="s">
+        <v>1005</v>
       </c>
       <c r="D348" s="6"/>
     </row>
@@ -21994,8 +22535,8 @@
       <c r="B349" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C349" s="7" t="s">
-        <v>791</v>
+      <c r="C349" s="23" t="s">
+        <v>1006</v>
       </c>
       <c r="D349" s="6"/>
     </row>
@@ -22006,37 +22547,37 @@
       <c r="B350" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C350" s="7" t="s">
-        <v>791</v>
+      <c r="C350" s="23" t="s">
+        <v>1006</v>
       </c>
       <c r="D350" s="6"/>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="9" t="s">
-        <v>793</v>
+        <v>751</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="C351" s="7" t="s">
-        <v>792</v>
+        <v>752</v>
+      </c>
+      <c r="C351" s="23" t="s">
+        <v>750</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="9" t="s">
-        <v>795</v>
+        <v>753</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>796</v>
-      </c>
-      <c r="C352" s="7" t="s">
-        <v>792</v>
+        <v>754</v>
+      </c>
+      <c r="C352" s="23" t="s">
+        <v>750</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -22044,13 +22585,13 @@
         <v>501</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>798</v>
-      </c>
-      <c r="C353" s="7" t="s">
-        <v>797</v>
+        <v>755</v>
+      </c>
+      <c r="C353" s="23" t="s">
+        <v>1007</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -22058,13 +22599,13 @@
         <v>502</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>797</v>
+        <v>756</v>
+      </c>
+      <c r="C354" s="24" t="s">
+        <v>1007</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -22074,11 +22615,11 @@
       <c r="B355" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C355" s="2" t="s">
-        <v>724</v>
+      <c r="C355" s="24" t="s">
+        <v>720</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -22086,69 +22627,69 @@
         <v>491</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>724</v>
+        <v>757</v>
+      </c>
+      <c r="C356" s="24" t="s">
+        <v>720</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="1" t="s">
-        <v>801</v>
+        <v>758</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>724</v>
+        <v>759</v>
+      </c>
+      <c r="C357" s="24" t="s">
+        <v>720</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
-        <v>803</v>
+        <v>760</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>725</v>
+        <v>761</v>
+      </c>
+      <c r="C358" s="24" t="s">
+        <v>721</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
-        <v>805</v>
+        <v>762</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>835</v>
+        <v>763</v>
+      </c>
+      <c r="C359" s="24" t="s">
+        <v>792</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
-        <v>807</v>
+        <v>764</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>835</v>
+        <v>765</v>
+      </c>
+      <c r="C360" s="24" t="s">
+        <v>792</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -22156,13 +22697,13 @@
         <v>467</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>730</v>
+        <v>766</v>
+      </c>
+      <c r="C361" s="24" t="s">
+        <v>726</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -22170,27 +22711,27 @@
         <v>235</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>730</v>
+        <v>767</v>
+      </c>
+      <c r="C362" s="24" t="s">
+        <v>726</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
-        <v>811</v>
+        <v>768</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>836</v>
+        <v>769</v>
+      </c>
+      <c r="C363" s="24" t="s">
+        <v>793</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -22198,27 +22739,27 @@
         <v>476</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="C364" s="2" t="s">
-        <v>836</v>
+        <v>770</v>
+      </c>
+      <c r="C364" s="24" t="s">
+        <v>793</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
-        <v>814</v>
+        <v>771</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>744</v>
+        <v>772</v>
+      </c>
+      <c r="C365" s="24" t="s">
+        <v>970</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -22226,13 +22767,13 @@
         <v>541</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>745</v>
+        <v>773</v>
+      </c>
+      <c r="C366" s="24" t="s">
+        <v>971</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -22240,41 +22781,41 @@
         <v>448</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>817</v>
+        <v>775</v>
+      </c>
+      <c r="C367" s="24" t="s">
+        <v>774</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
-        <v>819</v>
+        <v>776</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="C368" s="2" t="s">
-        <v>817</v>
+        <v>777</v>
+      </c>
+      <c r="C368" s="24" t="s">
+        <v>774</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
-        <v>821</v>
+        <v>778</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="C369" s="2" t="s">
-        <v>837</v>
+        <v>779</v>
+      </c>
+      <c r="C369" s="24" t="s">
+        <v>794</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -22282,41 +22823,41 @@
         <v>440</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>823</v>
+        <v>781</v>
+      </c>
+      <c r="C370" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="1" t="s">
-        <v>826</v>
+        <v>783</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>825</v>
+        <v>784</v>
+      </c>
+      <c r="C371" s="24" t="s">
+        <v>782</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
-        <v>828</v>
+        <v>785</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>750</v>
+        <v>786</v>
+      </c>
+      <c r="C372" s="24" t="s">
+        <v>740</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -22324,13 +22865,13 @@
         <v>496</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="C373" s="2" t="s">
-        <v>750</v>
+        <v>787</v>
+      </c>
+      <c r="C373" s="24" t="s">
+        <v>740</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -22338,27 +22879,727 @@
         <v>447</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>832</v>
+        <v>789</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>831</v>
+        <v>788</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="1" t="s">
-        <v>833</v>
+        <v>790</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>834</v>
+        <v>791</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>838</v>
+        <v>795</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>839</v>
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="25" t="s">
+        <v>866</v>
+      </c>
+      <c r="B376" s="25" t="s">
+        <v>867</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D376" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="25" t="s">
+        <v>868</v>
+      </c>
+      <c r="B377" s="25" t="s">
+        <v>869</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D377" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="25" t="s">
+        <v>870</v>
+      </c>
+      <c r="B378" s="25" t="s">
+        <v>871</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D378" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="25" t="s">
+        <v>872</v>
+      </c>
+      <c r="B379" s="25" t="s">
+        <v>873</v>
+      </c>
+      <c r="C379" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D379" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="25" t="s">
+        <v>874</v>
+      </c>
+      <c r="B380" s="25" t="s">
+        <v>875</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D380" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="25" t="s">
+        <v>876</v>
+      </c>
+      <c r="B381" s="25" t="s">
+        <v>877</v>
+      </c>
+      <c r="C381" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D381" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="25" t="s">
+        <v>878</v>
+      </c>
+      <c r="B382" s="25" t="s">
+        <v>879</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D382" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="25" t="s">
+        <v>880</v>
+      </c>
+      <c r="B383" s="25" t="s">
+        <v>881</v>
+      </c>
+      <c r="C383" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D383" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="25" t="s">
+        <v>882</v>
+      </c>
+      <c r="B384" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D384" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="25" t="s">
+        <v>884</v>
+      </c>
+      <c r="B385" s="25" t="s">
+        <v>885</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D385" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="25" t="s">
+        <v>886</v>
+      </c>
+      <c r="B386" s="25" t="s">
+        <v>887</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D386" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="25" t="s">
+        <v>888</v>
+      </c>
+      <c r="B387" s="25" t="s">
+        <v>889</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D387" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="25" t="s">
+        <v>890</v>
+      </c>
+      <c r="B388" s="25" t="s">
+        <v>891</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D388" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="25" t="s">
+        <v>892</v>
+      </c>
+      <c r="B389" s="25" t="s">
+        <v>893</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D389" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="25" t="s">
+        <v>894</v>
+      </c>
+      <c r="B390" s="25" t="s">
+        <v>895</v>
+      </c>
+      <c r="C390" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D390" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="25" t="s">
+        <v>896</v>
+      </c>
+      <c r="B391" s="25" t="s">
+        <v>897</v>
+      </c>
+      <c r="C391" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D391" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="25" t="s">
+        <v>898</v>
+      </c>
+      <c r="B392" s="25" t="s">
+        <v>899</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D392" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="25" t="s">
+        <v>900</v>
+      </c>
+      <c r="B393" s="25" t="s">
+        <v>901</v>
+      </c>
+      <c r="C393" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D393" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="25" t="s">
+        <v>902</v>
+      </c>
+      <c r="B394" s="25" t="s">
+        <v>903</v>
+      </c>
+      <c r="C394" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D394" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="25" t="s">
+        <v>904</v>
+      </c>
+      <c r="B395" s="25" t="s">
+        <v>905</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D395" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="25" t="s">
+        <v>906</v>
+      </c>
+      <c r="B396" s="25" t="s">
+        <v>907</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D396" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="25" t="s">
+        <v>908</v>
+      </c>
+      <c r="B397" s="25" t="s">
+        <v>909</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D397" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="25" t="s">
+        <v>910</v>
+      </c>
+      <c r="B398" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="C398" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D398" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="25" t="s">
+        <v>912</v>
+      </c>
+      <c r="B399" s="25" t="s">
+        <v>913</v>
+      </c>
+      <c r="C399" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D399" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="25" t="s">
+        <v>914</v>
+      </c>
+      <c r="B400" s="25" t="s">
+        <v>915</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D400" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="25" t="s">
+        <v>916</v>
+      </c>
+      <c r="B401" s="25" t="s">
+        <v>917</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D401" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="25" t="s">
+        <v>918</v>
+      </c>
+      <c r="B402" s="25" t="s">
+        <v>919</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D402" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="25" t="s">
+        <v>920</v>
+      </c>
+      <c r="B403" s="25" t="s">
+        <v>921</v>
+      </c>
+      <c r="C403" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D403" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="25" t="s">
+        <v>922</v>
+      </c>
+      <c r="B404" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="C404" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D404" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="25" t="s">
+        <v>924</v>
+      </c>
+      <c r="B405" s="25" t="s">
+        <v>925</v>
+      </c>
+      <c r="C405" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D405" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="25" t="s">
+        <v>926</v>
+      </c>
+      <c r="B406" s="25" t="s">
+        <v>927</v>
+      </c>
+      <c r="C406" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D406" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="25" t="s">
+        <v>928</v>
+      </c>
+      <c r="B407" s="25" t="s">
+        <v>929</v>
+      </c>
+      <c r="C407" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D407" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="25" t="s">
+        <v>930</v>
+      </c>
+      <c r="B408" s="25" t="s">
+        <v>931</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D408" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="25" t="s">
+        <v>932</v>
+      </c>
+      <c r="B409" s="25" t="s">
+        <v>933</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D409" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="25" t="s">
+        <v>934</v>
+      </c>
+      <c r="B410" s="25" t="s">
+        <v>935</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D410" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="25" t="s">
+        <v>936</v>
+      </c>
+      <c r="B411" s="25" t="s">
+        <v>937</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D411" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="25" t="s">
+        <v>938</v>
+      </c>
+      <c r="B412" s="25" t="s">
+        <v>939</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D412" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="25" t="s">
+        <v>940</v>
+      </c>
+      <c r="B413" s="25" t="s">
+        <v>941</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D413" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="25" t="s">
+        <v>942</v>
+      </c>
+      <c r="B414" s="25" t="s">
+        <v>943</v>
+      </c>
+      <c r="C414" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D414" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="25" t="s">
+        <v>944</v>
+      </c>
+      <c r="B415" s="25" t="s">
+        <v>945</v>
+      </c>
+      <c r="C415" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D415" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="25" t="s">
+        <v>946</v>
+      </c>
+      <c r="B416" s="25" t="s">
+        <v>947</v>
+      </c>
+      <c r="C416" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D416" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="B417" s="25" t="s">
+        <v>949</v>
+      </c>
+      <c r="C417" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D417" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="25" t="s">
+        <v>950</v>
+      </c>
+      <c r="B418" s="25" t="s">
+        <v>951</v>
+      </c>
+      <c r="C418" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D418" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="25" t="s">
+        <v>952</v>
+      </c>
+      <c r="B419" s="25" t="s">
+        <v>953</v>
+      </c>
+      <c r="C419" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D419" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="25" t="s">
+        <v>954</v>
+      </c>
+      <c r="B420" s="25" t="s">
+        <v>955</v>
+      </c>
+      <c r="C420" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D420" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="25" t="s">
+        <v>956</v>
+      </c>
+      <c r="B421" s="25" t="s">
+        <v>957</v>
+      </c>
+      <c r="C421" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D421" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="25" t="s">
+        <v>958</v>
+      </c>
+      <c r="B422" s="25" t="s">
+        <v>959</v>
+      </c>
+      <c r="C422" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D422" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="25" t="s">
+        <v>960</v>
+      </c>
+      <c r="B423" s="25" t="s">
+        <v>961</v>
+      </c>
+      <c r="C423" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D423" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="25" t="s">
+        <v>962</v>
+      </c>
+      <c r="B424" s="25" t="s">
+        <v>963</v>
+      </c>
+      <c r="C424" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D424" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="25" t="s">
+        <v>964</v>
+      </c>
+      <c r="B425" s="25" t="s">
+        <v>965</v>
+      </c>
+      <c r="C425" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D425" s="6" t="s">
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -22374,12 +23615,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G362" sqref="G362"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.75" defaultRowHeight="16.5"/>
@@ -22388,865 +23629,1197 @@
     <col min="2" max="2" width="49.125" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="19" t="s">
-        <v>865</v>
+        <v>821</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="20" t="s">
+        <v>796</v>
+      </c>
+      <c r="C2" t="s">
+        <v>823</v>
+      </c>
+      <c r="D2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>853</v>
+      </c>
+      <c r="C3" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>853</v>
+      </c>
+      <c r="C4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>854</v>
+      </c>
+      <c r="C5" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>863</v>
+      </c>
+      <c r="C6" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>1035</v>
+      </c>
+      <c r="C7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>860</v>
+      </c>
+      <c r="C8" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>858</v>
+      </c>
+      <c r="C9" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>856</v>
+      </c>
+      <c r="C10" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>857</v>
+      </c>
+      <c r="C11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>861</v>
+      </c>
+      <c r="C12" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>855</v>
+      </c>
+      <c r="C13" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>862</v>
+      </c>
+      <c r="C14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15" s="20" t="s">
+        <v>797</v>
+      </c>
+      <c r="C15" t="s">
+        <v>825</v>
+      </c>
+      <c r="D15" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="15">
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>799</v>
+      </c>
+      <c r="C16" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="B17" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="C17" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="15">
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>812</v>
+      </c>
+      <c r="C18" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="15">
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>810</v>
+      </c>
+      <c r="C19" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="15">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>813</v>
+      </c>
+      <c r="C20" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="15">
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>808</v>
+      </c>
+      <c r="C21" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="15">
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>811</v>
+      </c>
+      <c r="C22" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="15">
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>809</v>
+      </c>
+      <c r="C23" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="15">
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>818</v>
+      </c>
+      <c r="C24" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="15">
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>814</v>
+      </c>
+      <c r="C25" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="15">
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>801</v>
+      </c>
+      <c r="C26" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="15">
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>800</v>
+      </c>
+      <c r="C27" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="B28" s="20" t="s">
+        <v>798</v>
+      </c>
+      <c r="C28" t="s">
+        <v>833</v>
+      </c>
+      <c r="D28" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="15">
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>816</v>
+      </c>
+      <c r="C29" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="15">
         <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>817</v>
+      </c>
+      <c r="C30" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="15">
         <v>30</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="B31" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="C31" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="15">
         <v>31</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="B32" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="C32" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="15">
         <v>32</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>820</v>
+      </c>
+      <c r="C33" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="15">
         <v>33</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>820</v>
+      </c>
+      <c r="C34" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="15">
         <v>34</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>820</v>
+      </c>
+      <c r="C35" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="15">
         <v>35</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>807</v>
+      </c>
+      <c r="C36" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="15">
         <v>36</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>807</v>
+      </c>
+      <c r="C37" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="15">
         <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>807</v>
+      </c>
+      <c r="C38" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="15">
         <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>807</v>
+      </c>
+      <c r="C39" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="15">
         <v>39</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>807</v>
+      </c>
+      <c r="C40" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="15">
         <v>40</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>807</v>
+      </c>
+      <c r="C41" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="15">
         <v>41</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>807</v>
+      </c>
+      <c r="C42" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="15">
         <v>42</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>865</v>
+      </c>
+      <c r="C43" t="s">
+        <v>843</v>
+      </c>
+      <c r="D43" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="15">
         <v>43</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>806</v>
+      </c>
+      <c r="C44" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="15">
         <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>806</v>
+      </c>
+      <c r="C45" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="15">
         <v>45</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>806</v>
+      </c>
+      <c r="C46" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="15">
         <v>46</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>806</v>
+      </c>
+      <c r="C47" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="15">
         <v>47</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>806</v>
+      </c>
+      <c r="C48" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="15">
         <v>48</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>806</v>
+      </c>
+      <c r="C49" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="15">
         <v>49</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>806</v>
+      </c>
+      <c r="C50" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="15">
         <v>50</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>806</v>
+      </c>
+      <c r="C51" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="15">
         <v>51</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>806</v>
+      </c>
+      <c r="C52" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="15">
         <v>52</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>806</v>
+      </c>
+      <c r="C53" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="15">
         <v>53</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>806</v>
+      </c>
+      <c r="C54" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="15">
         <v>54</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>806</v>
+      </c>
+      <c r="C55" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="B56" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="15">
         <v>56</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>805</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="15">
         <v>57</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>805</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="15">
         <v>58</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>805</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="15">
         <v>59</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>805</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="15">
         <v>60</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>805</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="15">
         <v>61</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>805</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="15">
         <v>62</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>805</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="15">
         <v>63</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>805</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="15">
         <v>64</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>805</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="15">
         <v>65</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>805</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="15">
         <v>66</v>
       </c>
       <c r="B67" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="C67" s="22" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3">
       <c r="A68" s="15">
         <v>67</v>
       </c>
       <c r="B68" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="C68" s="22" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3">
       <c r="A69" s="15">
         <v>68</v>
       </c>
       <c r="B69" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="C69" s="22" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:3">
       <c r="A70" s="15">
         <v>69</v>
       </c>
       <c r="B70" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="C70" s="22" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3">
       <c r="A71" s="15">
         <v>70</v>
       </c>
       <c r="B71" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="C71" s="22" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:3">
       <c r="A72" s="15">
         <v>71</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>804</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="15">
         <v>72</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>804</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="15">
         <v>73</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>804</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="15">
         <v>74</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>804</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="15">
         <v>75</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>804</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="15">
         <v>76</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C77" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="15">
         <v>77</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C78" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="15">
         <v>78</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C79" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="15">
         <v>79</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C80" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="15">
         <v>80</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C81" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="15">
         <v>81</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C82" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="15">
         <v>82</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C83" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="15">
         <v>83</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C84" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="15">
         <v>84</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C85" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="15">
         <v>85</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C86" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="15">
         <v>86</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C87" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="15">
         <v>87</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C88" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="15">
         <v>88</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C89" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="15">
         <v>89</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C90" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="15">
         <v>90</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C91" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="15">
         <v>91</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C92" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="15">
         <v>92</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C93" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="15">
         <v>93</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C94" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="15">
         <v>94</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C95" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="15">
         <v>95</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C96" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="15">
         <v>96</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C97" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="15">
         <v>97</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C98" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="15">
         <v>98</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C99" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="15">
         <v>99</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C100" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="15">
         <v>100</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C101" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="15">
         <v>101</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C102" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="15">
         <v>102</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C103" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="15">
         <v>103</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C104" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="15">
         <v>104</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="B106"/>
-    </row>
-    <row r="107" spans="1:2">
+        <v>803</v>
+      </c>
+      <c r="C105" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="15">
+        <v>105</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="C106" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="B107"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:3">
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:3">
       <c r="B109"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:3">
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:3">
       <c r="B111"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:3">
       <c r="B112"/>
     </row>
     <row r="113" spans="2:2">
@@ -23350,6 +24923,9 @@
     </row>
     <row r="146" spans="2:2">
       <c r="B146"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/NameListSample.xlsx
+++ b/NameListSample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="8025" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="工作表" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="1038">
   <si>
     <t>王眾慧</t>
   </si>
@@ -3188,6 +3188,14 @@
   </si>
   <si>
     <t>周副總裁獎 10,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄭資深副總獎 6,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄭資深副總</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -18335,10 +18343,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D425"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B90" sqref="B90"/>
-      <selection pane="bottomLeft" activeCell="F121" sqref="F121"/>
+      <selection pane="bottomLeft" activeCell="C420" sqref="C420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -23615,12 +23623,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G362" sqref="G362"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.75" defaultRowHeight="16.5"/>
@@ -23766,10 +23774,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>855</v>
+        <v>1036</v>
       </c>
       <c r="C13" t="s">
-        <v>831</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -23777,43 +23785,43 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="C14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>797</v>
+      <c r="B15" s="16" t="s">
+        <v>862</v>
       </c>
       <c r="C15" t="s">
-        <v>825</v>
-      </c>
-      <c r="D15" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>799</v>
+      <c r="B16" s="20" t="s">
+        <v>797</v>
       </c>
       <c r="C16" t="s">
-        <v>826</v>
+        <v>825</v>
+      </c>
+      <c r="D16" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>819</v>
+      <c r="B17" s="16" t="s">
+        <v>799</v>
       </c>
       <c r="C17" t="s">
         <v>826</v>
@@ -23823,8 +23831,8 @@
       <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>812</v>
+      <c r="B18" s="17" t="s">
+        <v>819</v>
       </c>
       <c r="C18" t="s">
         <v>826</v>
@@ -23835,10 +23843,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -23846,7 +23854,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C20" t="s">
         <v>827</v>
@@ -23857,7 +23865,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="C21" t="s">
         <v>827</v>
@@ -23868,10 +23876,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C22" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -23879,7 +23887,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C23" t="s">
         <v>834</v>
@@ -23890,7 +23898,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C24" t="s">
         <v>834</v>
@@ -23901,10 +23909,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="C25" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -23912,7 +23920,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
       <c r="C26" t="s">
         <v>830</v>
@@ -23923,7 +23931,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C27" t="s">
         <v>830</v>
@@ -23933,25 +23941,25 @@
       <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>798</v>
+      <c r="B28" s="16" t="s">
+        <v>800</v>
       </c>
       <c r="C28" t="s">
-        <v>833</v>
-      </c>
-      <c r="D28" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>816</v>
+      <c r="B29" s="20" t="s">
+        <v>798</v>
       </c>
       <c r="C29" t="s">
-        <v>829</v>
+        <v>833</v>
+      </c>
+      <c r="D29" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -23959,7 +23967,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C30" t="s">
         <v>829</v>
@@ -23970,10 +23978,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>802</v>
+        <v>817</v>
       </c>
       <c r="C31" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -23981,7 +23989,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="C32" t="s">
         <v>837</v>
@@ -23991,11 +23999,11 @@
       <c r="A33" s="15">
         <v>32</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>820</v>
+      <c r="B33" s="16" t="s">
+        <v>815</v>
       </c>
       <c r="C33" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -24025,10 +24033,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="C36" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -24061,7 +24069,7 @@
         <v>807</v>
       </c>
       <c r="C39" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -24102,13 +24110,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>865</v>
+        <v>807</v>
       </c>
       <c r="C43" t="s">
-        <v>843</v>
-      </c>
-      <c r="D43" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -24116,10 +24121,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>806</v>
+        <v>865</v>
       </c>
       <c r="C44" t="s">
         <v>843</v>
+      </c>
+      <c r="D44" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -24152,7 +24160,7 @@
         <v>806</v>
       </c>
       <c r="C47" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -24207,7 +24215,7 @@
         <v>806</v>
       </c>
       <c r="C52" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -24247,19 +24255,19 @@
       <c r="A56" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="21" t="s">
-        <v>864</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>846</v>
+      <c r="B56" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="C56" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="15">
         <v>56</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>805</v>
+      <c r="B57" s="21" t="s">
+        <v>864</v>
       </c>
       <c r="C57" s="22" t="s">
         <v>846</v>
@@ -24306,7 +24314,7 @@
         <v>805</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -24369,10 +24377,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -24427,7 +24435,7 @@
         <v>804</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -24479,10 +24487,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>803</v>
-      </c>
-      <c r="C77" t="s">
-        <v>852</v>
+        <v>804</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -24592,7 +24600,7 @@
         <v>803</v>
       </c>
       <c r="C87" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -24702,7 +24710,7 @@
         <v>803</v>
       </c>
       <c r="C97" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -24805,7 +24813,15 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="B107"/>
+      <c r="A107" s="15">
+        <v>106</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="C107" t="s">
+        <v>851</v>
+      </c>
     </row>
     <row r="108" spans="1:3">
       <c r="B108"/>
@@ -24926,6 +24942,9 @@
     </row>
     <row r="147" spans="2:2">
       <c r="B147"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
